--- a/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Mastercard Apr - Jun 2023.xlsx
+++ b/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Mastercard Apr - Jun 2023.xlsx
@@ -750,7 +750,7 @@
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>Mastercard Payment</t>
+          <t>PAYMENT RECEIVED, THANK YOU MasterCardPayment</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr"/>
@@ -798,7 +798,7 @@
       <c r="A6" s="7" t="inlineStr"/>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>Mastercard Payment</t>
+          <t>PAYMENT RECEIVED, THANK YOU MasterCardPayment</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr"/>
@@ -18127,15 +18127,15 @@
           <t>Chemist Warehouse</t>
         </is>
       </c>
-      <c r="C45" s="8" t="inlineStr"/>
+      <c r="C45" s="8" t="n">
+        <v>46.98</v>
+      </c>
       <c r="D45" s="8" t="inlineStr"/>
       <c r="E45" s="8" t="inlineStr"/>
       <c r="F45" s="8" t="inlineStr"/>
       <c r="G45" s="8" t="inlineStr"/>
       <c r="H45" s="8" t="inlineStr"/>
-      <c r="I45" s="8" t="n">
-        <v>46.98</v>
-      </c>
+      <c r="I45" s="8" t="inlineStr"/>
       <c r="J45" s="8" t="inlineStr"/>
       <c r="K45" s="8" t="inlineStr"/>
       <c r="L45" s="8" t="inlineStr"/>
@@ -19067,15 +19067,15 @@
           <t>Chemist Warehouse</t>
         </is>
       </c>
-      <c r="C76" s="8" t="inlineStr"/>
+      <c r="C76" s="8" t="n">
+        <v>75.47</v>
+      </c>
       <c r="D76" s="8" t="inlineStr"/>
       <c r="E76" s="8" t="inlineStr"/>
       <c r="F76" s="8" t="inlineStr"/>
       <c r="G76" s="8" t="inlineStr"/>
       <c r="H76" s="8" t="inlineStr"/>
-      <c r="I76" s="8" t="n">
-        <v>75.47</v>
-      </c>
+      <c r="I76" s="8" t="inlineStr"/>
       <c r="J76" s="8" t="inlineStr"/>
       <c r="K76" s="8" t="inlineStr"/>
       <c r="L76" s="8" t="inlineStr"/>
@@ -19831,15 +19831,15 @@
           <t>Chemist Warehouse</t>
         </is>
       </c>
-      <c r="C101" s="8" t="inlineStr"/>
+      <c r="C101" s="8" t="n">
+        <v>8.5</v>
+      </c>
       <c r="D101" s="8" t="inlineStr"/>
       <c r="E101" s="8" t="inlineStr"/>
       <c r="F101" s="8" t="inlineStr"/>
       <c r="G101" s="8" t="inlineStr"/>
       <c r="H101" s="8" t="inlineStr"/>
-      <c r="I101" s="8" t="n">
-        <v>8.5</v>
-      </c>
+      <c r="I101" s="8" t="inlineStr"/>
       <c r="J101" s="8" t="inlineStr"/>
       <c r="K101" s="8" t="inlineStr"/>
       <c r="L101" s="8" t="inlineStr"/>

--- a/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Mastercard Apr - Jun 2023.xlsx
+++ b/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Mastercard Apr - Jun 2023.xlsx
@@ -738,12 +738,12 @@
           <t>PAYMENT RECEIVED, THANK YOU MasterCardPayment</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7" t="inlineStr"/>
+      <c r="D4" s="7" t="inlineStr"/>
+      <c r="E4" s="7" t="inlineStr"/>
+      <c r="F4" s="7" t="n">
         <v>4421.59</v>
       </c>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n"/>
       <c r="G4" s="7">
         <f>SUM(C4:F4)</f>
         <v/>
@@ -764,12 +764,12 @@
           <t>PAYMENT RECEIVED, THANK YOU</t>
         </is>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="7" t="inlineStr"/>
+      <c r="D5" s="7" t="inlineStr"/>
+      <c r="E5" s="7" t="inlineStr"/>
+      <c r="F5" s="7" t="n">
         <v>10700</v>
       </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
       <c r="G5" s="7">
         <f>SUM(C5:F5)</f>
         <v/>
@@ -786,12 +786,12 @@
           <t>PAYMENT RECEIVED, THANK YOU MasterCardPayment</t>
         </is>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="7" t="inlineStr"/>
+      <c r="D6" s="7" t="inlineStr"/>
+      <c r="E6" s="7" t="inlineStr"/>
+      <c r="F6" s="7" t="n">
         <v>5200</v>
       </c>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
       <c r="G6" s="7">
         <f>SUM(C6:F6)</f>
         <v/>
@@ -812,12 +812,12 @@
           <t>PAYMENT RECEIVED, THANK YOU</t>
         </is>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7" t="inlineStr"/>
+      <c r="D7" s="7" t="inlineStr"/>
+      <c r="E7" s="7" t="inlineStr"/>
+      <c r="F7" s="7" t="n">
         <v>3700</v>
       </c>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
       <c r="G7" s="7">
         <f>SUM(C7:F7)</f>
         <v/>
@@ -16872,18 +16872,18 @@
           <t>Kmart</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7" t="inlineStr"/>
+      <c r="D4" s="7" t="inlineStr"/>
+      <c r="E4" s="7" t="inlineStr"/>
+      <c r="F4" s="7" t="inlineStr"/>
+      <c r="G4" s="7" t="inlineStr"/>
+      <c r="H4" s="7" t="inlineStr"/>
+      <c r="I4" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="7" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="7" t="n"/>
-      <c r="K4" s="7" t="n"/>
-      <c r="L4" s="7" t="n"/>
+      <c r="J4" s="7" t="inlineStr"/>
+      <c r="K4" s="7" t="inlineStr"/>
+      <c r="L4" s="7" t="inlineStr"/>
       <c r="M4" s="7">
         <f>SUM(C4:L4)</f>
         <v/>
@@ -16900,18 +16900,18 @@
           <t>Allison Browning</t>
         </is>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="7" t="inlineStr"/>
+      <c r="D5" s="7" t="inlineStr"/>
+      <c r="E5" s="7" t="inlineStr"/>
+      <c r="F5" s="7" t="inlineStr"/>
+      <c r="G5" s="7" t="inlineStr"/>
+      <c r="H5" s="7" t="inlineStr"/>
+      <c r="I5" s="7" t="inlineStr"/>
+      <c r="J5" s="7" t="inlineStr"/>
+      <c r="K5" s="7" t="n">
         <v>220</v>
       </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="7" t="n"/>
-      <c r="K5" s="7" t="n"/>
-      <c r="L5" s="7" t="n"/>
+      <c r="L5" s="7" t="inlineStr"/>
       <c r="M5" s="7">
         <f>SUM(C5:L5)</f>
         <v/>
@@ -16932,18 +16932,18 @@
           <t>EG Group</t>
         </is>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="7" t="inlineStr"/>
+      <c r="D6" s="7" t="inlineStr"/>
+      <c r="E6" s="7" t="inlineStr"/>
+      <c r="F6" s="7" t="inlineStr"/>
+      <c r="G6" s="7" t="n">
         <v>50.56</v>
       </c>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="7" t="n"/>
-      <c r="K6" s="7" t="n"/>
-      <c r="L6" s="7" t="n"/>
+      <c r="H6" s="7" t="inlineStr"/>
+      <c r="I6" s="7" t="inlineStr"/>
+      <c r="J6" s="7" t="inlineStr"/>
+      <c r="K6" s="7" t="inlineStr"/>
+      <c r="L6" s="7" t="inlineStr"/>
       <c r="M6" s="7">
         <f>SUM(C6:L6)</f>
         <v/>
@@ -16960,18 +16960,18 @@
           <t>Coles Express</t>
         </is>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7" t="inlineStr"/>
+      <c r="D7" s="7" t="inlineStr"/>
+      <c r="E7" s="7" t="inlineStr"/>
+      <c r="F7" s="7" t="inlineStr"/>
+      <c r="G7" s="7" t="n">
         <v>74.75</v>
       </c>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="7" t="n"/>
-      <c r="I7" s="7" t="n"/>
-      <c r="J7" s="7" t="n"/>
-      <c r="K7" s="7" t="n"/>
-      <c r="L7" s="7" t="n"/>
+      <c r="H7" s="7" t="inlineStr"/>
+      <c r="I7" s="7" t="inlineStr"/>
+      <c r="J7" s="7" t="inlineStr"/>
+      <c r="K7" s="7" t="inlineStr"/>
+      <c r="L7" s="7" t="inlineStr"/>
       <c r="M7" s="7">
         <f>SUM(C7:L7)</f>
         <v/>
@@ -16992,18 +16992,18 @@
           <t>RACV</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="n">
         <v>1383.1</v>
       </c>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="n"/>
-      <c r="J8" s="7" t="n"/>
-      <c r="K8" s="7" t="n"/>
-      <c r="L8" s="7" t="n"/>
+      <c r="K8" s="7" t="inlineStr"/>
+      <c r="L8" s="7" t="inlineStr"/>
       <c r="M8" s="7">
         <f>SUM(C8:L8)</f>
         <v/>
@@ -17027,15 +17027,15 @@
       <c r="C9" s="7" t="n">
         <v>30.6</v>
       </c>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="7" t="n"/>
-      <c r="J9" s="7" t="n"/>
-      <c r="K9" s="7" t="n"/>
-      <c r="L9" s="7" t="n"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+      <c r="K9" s="7" t="inlineStr"/>
+      <c r="L9" s="7" t="inlineStr"/>
       <c r="M9" s="7">
         <f>SUM(C9:L9)</f>
         <v/>
@@ -17056,18 +17056,18 @@
           <t>IGA</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="n">
         <v>118.04</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
-      <c r="J10" s="7" t="n"/>
-      <c r="K10" s="7" t="n"/>
-      <c r="L10" s="7" t="n"/>
+      <c r="J10" s="7" t="inlineStr"/>
+      <c r="K10" s="7" t="inlineStr"/>
+      <c r="L10" s="7" t="inlineStr"/>
       <c r="M10" s="7">
         <f>SUM(C10:L10)</f>
         <v/>
@@ -17084,18 +17084,18 @@
           <t>Allison Browning</t>
         </is>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+      <c r="K11" s="7" t="n">
         <v>220</v>
       </c>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-      <c r="K11" s="7" t="n"/>
-      <c r="L11" s="7" t="n"/>
+      <c r="L11" s="7" t="inlineStr"/>
       <c r="M11" s="7">
         <f>SUM(C11:L11)</f>
         <v/>
@@ -17115,15 +17115,15 @@
       <c r="C12" s="7" t="n">
         <v>81.29000000000001</v>
       </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-      <c r="K12" s="7" t="n"/>
-      <c r="L12" s="7" t="n"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+      <c r="K12" s="7" t="inlineStr"/>
+      <c r="L12" s="7" t="inlineStr"/>
       <c r="M12" s="7">
         <f>SUM(C12:L12)</f>
         <v/>
@@ -17147,15 +17147,15 @@
       <c r="C13" s="7" t="n">
         <v>120.88</v>
       </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-      <c r="K13" s="7" t="n"/>
-      <c r="L13" s="7" t="n"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+      <c r="K13" s="7" t="inlineStr"/>
+      <c r="L13" s="7" t="inlineStr"/>
       <c r="M13" s="7">
         <f>SUM(C13:L13)</f>
         <v/>
@@ -17172,18 +17172,18 @@
           <t>Woolworths</t>
         </is>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="n">
         <v>145.6</v>
       </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-      <c r="K14" s="7" t="n"/>
-      <c r="L14" s="7" t="n"/>
+      <c r="J14" s="7" t="inlineStr"/>
+      <c r="K14" s="7" t="inlineStr"/>
+      <c r="L14" s="7" t="inlineStr"/>
       <c r="M14" s="7">
         <f>SUM(C14:L14)</f>
         <v/>
@@ -17204,18 +17204,18 @@
           <t>Coles Express</t>
         </is>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="n">
         <v>77.11</v>
       </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
-      <c r="J15" s="7" t="n"/>
-      <c r="K15" s="7" t="n"/>
-      <c r="L15" s="7" t="n"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+      <c r="K15" s="7" t="inlineStr"/>
+      <c r="L15" s="7" t="inlineStr"/>
       <c r="M15" s="7">
         <f>SUM(C15:L15)</f>
         <v/>
@@ -17235,15 +17235,15 @@
       <c r="C16" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
-      <c r="K16" s="7" t="n"/>
-      <c r="L16" s="7" t="n"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+      <c r="K16" s="7" t="inlineStr"/>
+      <c r="L16" s="7" t="inlineStr"/>
       <c r="M16" s="7">
         <f>SUM(C16:L16)</f>
         <v/>
@@ -17264,18 +17264,18 @@
           <t>IGA</t>
         </is>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="n">
         <v>107.9</v>
       </c>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="7" t="n"/>
-      <c r="I17" s="7" t="n"/>
-      <c r="J17" s="7" t="n"/>
-      <c r="K17" s="7" t="n"/>
-      <c r="L17" s="7" t="n"/>
+      <c r="J17" s="7" t="inlineStr"/>
+      <c r="K17" s="7" t="inlineStr"/>
+      <c r="L17" s="7" t="inlineStr"/>
       <c r="M17" s="7">
         <f>SUM(C17:L17)</f>
         <v/>
@@ -17295,15 +17295,15 @@
       <c r="C18" s="7" t="n">
         <v>68.65000000000001</v>
       </c>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
-      <c r="H18" s="7" t="n"/>
-      <c r="I18" s="7" t="n"/>
-      <c r="J18" s="7" t="n"/>
-      <c r="K18" s="7" t="n"/>
-      <c r="L18" s="7" t="n"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+      <c r="K18" s="7" t="inlineStr"/>
+      <c r="L18" s="7" t="inlineStr"/>
       <c r="M18" s="7">
         <f>SUM(C18:L18)</f>
         <v/>
@@ -17320,18 +17320,18 @@
           <t>Xero</t>
         </is>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="n">
         <v>59</v>
       </c>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="7" t="n"/>
-      <c r="I19" s="7" t="n"/>
-      <c r="J19" s="7" t="n"/>
-      <c r="K19" s="7" t="n"/>
-      <c r="L19" s="7" t="n"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+      <c r="K19" s="7" t="inlineStr"/>
+      <c r="L19" s="7" t="inlineStr"/>
       <c r="M19" s="7">
         <f>SUM(C19:L19)</f>
         <v/>
@@ -17348,18 +17348,18 @@
           <t>Coles Express</t>
         </is>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="n">
         <v>38.76</v>
       </c>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7" t="n"/>
-      <c r="I20" s="7" t="n"/>
-      <c r="J20" s="7" t="n"/>
-      <c r="K20" s="7" t="n"/>
-      <c r="L20" s="7" t="n"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr"/>
+      <c r="K20" s="7" t="inlineStr"/>
+      <c r="L20" s="7" t="inlineStr"/>
       <c r="M20" s="7">
         <f>SUM(C20:L20)</f>
         <v/>
@@ -17380,18 +17380,18 @@
           <t>Chemist Warehouse</t>
         </is>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="7" t="n">
         <v>73.48</v>
       </c>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-      <c r="H21" s="7" t="n"/>
-      <c r="I21" s="7" t="n"/>
-      <c r="J21" s="7" t="n"/>
-      <c r="K21" s="7" t="n"/>
-      <c r="L21" s="7" t="n"/>
+      <c r="J21" s="7" t="inlineStr"/>
+      <c r="K21" s="7" t="inlineStr"/>
+      <c r="L21" s="7" t="inlineStr"/>
       <c r="M21" s="7">
         <f>SUM(C21:L21)</f>
         <v/>
@@ -17415,15 +17415,15 @@
       <c r="C22" s="7" t="n">
         <v>1468.2</v>
       </c>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-      <c r="H22" s="7" t="n"/>
-      <c r="I22" s="7" t="n"/>
-      <c r="J22" s="7" t="n"/>
-      <c r="K22" s="7" t="n"/>
-      <c r="L22" s="7" t="n"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+      <c r="K22" s="7" t="inlineStr"/>
+      <c r="L22" s="7" t="inlineStr"/>
       <c r="M22" s="7">
         <f>SUM(C22:L22)</f>
         <v/>
@@ -17444,18 +17444,18 @@
           <t>Allison Browning</t>
         </is>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+      <c r="K23" s="7" t="n">
         <v>220</v>
       </c>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
-      <c r="H23" s="7" t="n"/>
-      <c r="I23" s="7" t="n"/>
-      <c r="J23" s="7" t="n"/>
-      <c r="K23" s="7" t="n"/>
-      <c r="L23" s="7" t="n"/>
+      <c r="L23" s="7" t="inlineStr"/>
       <c r="M23" s="7">
         <f>SUM(C23:L23)</f>
         <v/>
@@ -17472,18 +17472,18 @@
           <t>Belong</t>
         </is>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="7" t="inlineStr"/>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
-      <c r="H24" s="7" t="n"/>
-      <c r="I24" s="7" t="n"/>
-      <c r="J24" s="7" t="n"/>
-      <c r="K24" s="7" t="n"/>
-      <c r="L24" s="7" t="n"/>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr"/>
+      <c r="K24" s="7" t="inlineStr"/>
+      <c r="L24" s="7" t="inlineStr"/>
       <c r="M24" s="7">
         <f>SUM(C24:L24)</f>
         <v/>
@@ -17500,18 +17500,18 @@
           <t>7-Eleven</t>
         </is>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="7" t="inlineStr"/>
+      <c r="D25" s="7" t="inlineStr"/>
+      <c r="E25" s="7" t="inlineStr"/>
+      <c r="F25" s="7" t="inlineStr"/>
+      <c r="G25" s="7" t="n">
         <v>83.08</v>
       </c>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
-      <c r="H25" s="7" t="n"/>
-      <c r="I25" s="7" t="n"/>
-      <c r="J25" s="7" t="n"/>
-      <c r="K25" s="7" t="n"/>
-      <c r="L25" s="7" t="n"/>
+      <c r="H25" s="7" t="inlineStr"/>
+      <c r="I25" s="7" t="inlineStr"/>
+      <c r="J25" s="7" t="inlineStr"/>
+      <c r="K25" s="7" t="inlineStr"/>
+      <c r="L25" s="7" t="inlineStr"/>
       <c r="M25" s="7">
         <f>SUM(C25:L25)</f>
         <v/>
@@ -17532,18 +17532,18 @@
           <t>Kmart</t>
         </is>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="7" t="inlineStr"/>
+      <c r="D26" s="7" t="inlineStr"/>
+      <c r="E26" s="7" t="inlineStr"/>
+      <c r="F26" s="7" t="inlineStr"/>
+      <c r="G26" s="7" t="inlineStr"/>
+      <c r="H26" s="7" t="inlineStr"/>
+      <c r="I26" s="7" t="n">
         <v>31.25</v>
       </c>
-      <c r="D26" s="7" t="n"/>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="7" t="n"/>
-      <c r="G26" s="7" t="n"/>
-      <c r="H26" s="7" t="n"/>
-      <c r="I26" s="7" t="n"/>
-      <c r="J26" s="7" t="n"/>
-      <c r="K26" s="7" t="n"/>
-      <c r="L26" s="7" t="n"/>
+      <c r="J26" s="7" t="inlineStr"/>
+      <c r="K26" s="7" t="inlineStr"/>
+      <c r="L26" s="7" t="inlineStr"/>
       <c r="M26" s="7">
         <f>SUM(C26:L26)</f>
         <v/>
@@ -17564,18 +17564,18 @@
           <t>EG Group</t>
         </is>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="7" t="inlineStr"/>
+      <c r="D27" s="7" t="inlineStr"/>
+      <c r="E27" s="7" t="inlineStr"/>
+      <c r="F27" s="7" t="inlineStr"/>
+      <c r="G27" s="7" t="n">
         <v>62.61</v>
       </c>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
-      <c r="H27" s="7" t="n"/>
-      <c r="I27" s="7" t="n"/>
-      <c r="J27" s="7" t="n"/>
-      <c r="K27" s="7" t="n"/>
-      <c r="L27" s="7" t="n"/>
+      <c r="H27" s="7" t="inlineStr"/>
+      <c r="I27" s="7" t="inlineStr"/>
+      <c r="J27" s="7" t="inlineStr"/>
+      <c r="K27" s="7" t="inlineStr"/>
+      <c r="L27" s="7" t="inlineStr"/>
       <c r="M27" s="7">
         <f>SUM(C27:L27)</f>
         <v/>
@@ -17596,18 +17596,18 @@
           <t>EG Group</t>
         </is>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="7" t="inlineStr"/>
+      <c r="D28" s="7" t="inlineStr"/>
+      <c r="E28" s="7" t="inlineStr"/>
+      <c r="F28" s="7" t="inlineStr"/>
+      <c r="G28" s="7" t="n">
         <v>74.44</v>
       </c>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="n"/>
-      <c r="H28" s="7" t="n"/>
-      <c r="I28" s="7" t="n"/>
-      <c r="J28" s="7" t="n"/>
-      <c r="K28" s="7" t="n"/>
-      <c r="L28" s="7" t="n"/>
+      <c r="H28" s="7" t="inlineStr"/>
+      <c r="I28" s="7" t="inlineStr"/>
+      <c r="J28" s="7" t="inlineStr"/>
+      <c r="K28" s="7" t="inlineStr"/>
+      <c r="L28" s="7" t="inlineStr"/>
       <c r="M28" s="7">
         <f>SUM(C28:L28)</f>
         <v/>
@@ -17628,18 +17628,18 @@
           <t>IGA</t>
         </is>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="7" t="inlineStr"/>
+      <c r="D29" s="7" t="inlineStr"/>
+      <c r="E29" s="7" t="inlineStr"/>
+      <c r="F29" s="7" t="inlineStr"/>
+      <c r="G29" s="7" t="inlineStr"/>
+      <c r="H29" s="7" t="inlineStr"/>
+      <c r="I29" s="7" t="n">
         <v>113.81</v>
       </c>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
-      <c r="H29" s="7" t="n"/>
-      <c r="I29" s="7" t="n"/>
-      <c r="J29" s="7" t="n"/>
-      <c r="K29" s="7" t="n"/>
-      <c r="L29" s="7" t="n"/>
+      <c r="J29" s="7" t="inlineStr"/>
+      <c r="K29" s="7" t="inlineStr"/>
+      <c r="L29" s="7" t="inlineStr"/>
       <c r="M29" s="7">
         <f>SUM(C29:L29)</f>
         <v/>
@@ -17659,15 +17659,15 @@
       <c r="C30" s="7" t="n">
         <v>3.3</v>
       </c>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
-      <c r="G30" s="7" t="n"/>
-      <c r="H30" s="7" t="n"/>
-      <c r="I30" s="7" t="n"/>
-      <c r="J30" s="7" t="n"/>
-      <c r="K30" s="7" t="n"/>
-      <c r="L30" s="7" t="n"/>
+      <c r="D30" s="7" t="inlineStr"/>
+      <c r="E30" s="7" t="inlineStr"/>
+      <c r="F30" s="7" t="inlineStr"/>
+      <c r="G30" s="7" t="inlineStr"/>
+      <c r="H30" s="7" t="inlineStr"/>
+      <c r="I30" s="7" t="inlineStr"/>
+      <c r="J30" s="7" t="inlineStr"/>
+      <c r="K30" s="7" t="inlineStr"/>
+      <c r="L30" s="7" t="inlineStr"/>
       <c r="M30" s="7">
         <f>SUM(C30:L30)</f>
         <v/>
@@ -17688,18 +17688,18 @@
           <t>Healthy Pets</t>
         </is>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="7" t="inlineStr"/>
+      <c r="D31" s="7" t="inlineStr"/>
+      <c r="E31" s="7" t="inlineStr"/>
+      <c r="F31" s="7" t="inlineStr"/>
+      <c r="G31" s="7" t="inlineStr"/>
+      <c r="H31" s="7" t="inlineStr"/>
+      <c r="I31" s="7" t="inlineStr"/>
+      <c r="J31" s="7" t="inlineStr"/>
+      <c r="K31" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
-      <c r="H31" s="7" t="n"/>
-      <c r="I31" s="7" t="n"/>
-      <c r="J31" s="7" t="n"/>
-      <c r="K31" s="7" t="n"/>
-      <c r="L31" s="7" t="n"/>
+      <c r="L31" s="7" t="inlineStr"/>
       <c r="M31" s="7">
         <f>SUM(C31:L31)</f>
         <v/>
@@ -17716,18 +17716,18 @@
           <t>EG Group</t>
         </is>
       </c>
-      <c r="C32" s="7" t="n">
+      <c r="C32" s="7" t="inlineStr"/>
+      <c r="D32" s="7" t="inlineStr"/>
+      <c r="E32" s="7" t="inlineStr"/>
+      <c r="F32" s="7" t="inlineStr"/>
+      <c r="G32" s="7" t="n">
         <v>47.39</v>
       </c>
-      <c r="D32" s="7" t="n"/>
-      <c r="E32" s="7" t="n"/>
-      <c r="F32" s="7" t="n"/>
-      <c r="G32" s="7" t="n"/>
-      <c r="H32" s="7" t="n"/>
-      <c r="I32" s="7" t="n"/>
-      <c r="J32" s="7" t="n"/>
-      <c r="K32" s="7" t="n"/>
-      <c r="L32" s="7" t="n"/>
+      <c r="H32" s="7" t="inlineStr"/>
+      <c r="I32" s="7" t="inlineStr"/>
+      <c r="J32" s="7" t="inlineStr"/>
+      <c r="K32" s="7" t="inlineStr"/>
+      <c r="L32" s="7" t="inlineStr"/>
       <c r="M32" s="7">
         <f>SUM(C32:L32)</f>
         <v/>
@@ -17748,18 +17748,18 @@
           <t>Belong</t>
         </is>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="7" t="inlineStr"/>
+      <c r="D33" s="7" t="inlineStr"/>
+      <c r="E33" s="7" t="inlineStr"/>
+      <c r="F33" s="7" t="inlineStr"/>
+      <c r="G33" s="7" t="inlineStr"/>
+      <c r="H33" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D33" s="7" t="n"/>
-      <c r="E33" s="7" t="n"/>
-      <c r="F33" s="7" t="n"/>
-      <c r="G33" s="7" t="n"/>
-      <c r="H33" s="7" t="n"/>
-      <c r="I33" s="7" t="n"/>
-      <c r="J33" s="7" t="n"/>
-      <c r="K33" s="7" t="n"/>
-      <c r="L33" s="7" t="n"/>
+      <c r="I33" s="7" t="inlineStr"/>
+      <c r="J33" s="7" t="inlineStr"/>
+      <c r="K33" s="7" t="inlineStr"/>
+      <c r="L33" s="7" t="inlineStr"/>
       <c r="M33" s="7">
         <f>SUM(C33:L33)</f>
         <v/>
@@ -17779,15 +17779,15 @@
       <c r="C34" s="7" t="n">
         <v>123.9</v>
       </c>
-      <c r="D34" s="7" t="n"/>
-      <c r="E34" s="7" t="n"/>
-      <c r="F34" s="7" t="n"/>
-      <c r="G34" s="7" t="n"/>
-      <c r="H34" s="7" t="n"/>
-      <c r="I34" s="7" t="n"/>
-      <c r="J34" s="7" t="n"/>
-      <c r="K34" s="7" t="n"/>
-      <c r="L34" s="7" t="n"/>
+      <c r="D34" s="7" t="inlineStr"/>
+      <c r="E34" s="7" t="inlineStr"/>
+      <c r="F34" s="7" t="inlineStr"/>
+      <c r="G34" s="7" t="inlineStr"/>
+      <c r="H34" s="7" t="inlineStr"/>
+      <c r="I34" s="7" t="inlineStr"/>
+      <c r="J34" s="7" t="inlineStr"/>
+      <c r="K34" s="7" t="inlineStr"/>
+      <c r="L34" s="7" t="inlineStr"/>
       <c r="M34" s="7">
         <f>SUM(C34:L34)</f>
         <v/>
@@ -17811,15 +17811,15 @@
       <c r="C35" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
-      <c r="G35" s="7" t="n"/>
-      <c r="H35" s="7" t="n"/>
-      <c r="I35" s="7" t="n"/>
-      <c r="J35" s="7" t="n"/>
-      <c r="K35" s="7" t="n"/>
-      <c r="L35" s="7" t="n"/>
+      <c r="D35" s="7" t="inlineStr"/>
+      <c r="E35" s="7" t="inlineStr"/>
+      <c r="F35" s="7" t="inlineStr"/>
+      <c r="G35" s="7" t="inlineStr"/>
+      <c r="H35" s="7" t="inlineStr"/>
+      <c r="I35" s="7" t="inlineStr"/>
+      <c r="J35" s="7" t="inlineStr"/>
+      <c r="K35" s="7" t="inlineStr"/>
+      <c r="L35" s="7" t="inlineStr"/>
       <c r="M35" s="7">
         <f>SUM(C35:L35)</f>
         <v/>
@@ -17839,15 +17839,15 @@
       <c r="C36" s="7" t="n">
         <v>75.98999999999999</v>
       </c>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
-      <c r="G36" s="7" t="n"/>
-      <c r="H36" s="7" t="n"/>
-      <c r="I36" s="7" t="n"/>
-      <c r="J36" s="7" t="n"/>
-      <c r="K36" s="7" t="n"/>
-      <c r="L36" s="7" t="n"/>
+      <c r="D36" s="7" t="inlineStr"/>
+      <c r="E36" s="7" t="inlineStr"/>
+      <c r="F36" s="7" t="inlineStr"/>
+      <c r="G36" s="7" t="inlineStr"/>
+      <c r="H36" s="7" t="inlineStr"/>
+      <c r="I36" s="7" t="inlineStr"/>
+      <c r="J36" s="7" t="inlineStr"/>
+      <c r="K36" s="7" t="inlineStr"/>
+      <c r="L36" s="7" t="inlineStr"/>
       <c r="M36" s="7">
         <f>SUM(C36:L36)</f>
         <v/>
@@ -17871,15 +17871,15 @@
       <c r="C37" s="7" t="n">
         <v>75.01000000000001</v>
       </c>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="n"/>
-      <c r="H37" s="7" t="n"/>
-      <c r="I37" s="7" t="n"/>
-      <c r="J37" s="7" t="n"/>
-      <c r="K37" s="7" t="n"/>
-      <c r="L37" s="7" t="n"/>
+      <c r="D37" s="7" t="inlineStr"/>
+      <c r="E37" s="7" t="inlineStr"/>
+      <c r="F37" s="7" t="inlineStr"/>
+      <c r="G37" s="7" t="inlineStr"/>
+      <c r="H37" s="7" t="inlineStr"/>
+      <c r="I37" s="7" t="inlineStr"/>
+      <c r="J37" s="7" t="inlineStr"/>
+      <c r="K37" s="7" t="inlineStr"/>
+      <c r="L37" s="7" t="inlineStr"/>
       <c r="M37" s="7">
         <f>SUM(C37:L37)</f>
         <v/>
@@ -17900,18 +17900,18 @@
           <t>Kmart</t>
         </is>
       </c>
-      <c r="C38" s="7" t="n">
+      <c r="C38" s="7" t="inlineStr"/>
+      <c r="D38" s="7" t="inlineStr"/>
+      <c r="E38" s="7" t="inlineStr"/>
+      <c r="F38" s="7" t="inlineStr"/>
+      <c r="G38" s="7" t="inlineStr"/>
+      <c r="H38" s="7" t="inlineStr"/>
+      <c r="I38" s="7" t="n">
         <v>32.5</v>
       </c>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
-      <c r="G38" s="7" t="n"/>
-      <c r="H38" s="7" t="n"/>
-      <c r="I38" s="7" t="n"/>
-      <c r="J38" s="7" t="n"/>
-      <c r="K38" s="7" t="n"/>
-      <c r="L38" s="7" t="n"/>
+      <c r="J38" s="7" t="inlineStr"/>
+      <c r="K38" s="7" t="inlineStr"/>
+      <c r="L38" s="7" t="inlineStr"/>
       <c r="M38" s="7">
         <f>SUM(C38:L38)</f>
         <v/>
@@ -17928,18 +17928,18 @@
           <t>COLES 7739PRESTONAUS</t>
         </is>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="7" t="inlineStr"/>
+      <c r="D39" s="7" t="inlineStr"/>
+      <c r="E39" s="7" t="inlineStr"/>
+      <c r="F39" s="7" t="inlineStr"/>
+      <c r="G39" s="7" t="n">
         <v>88.75</v>
       </c>
-      <c r="D39" s="7" t="n"/>
-      <c r="E39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
-      <c r="G39" s="7" t="n"/>
-      <c r="H39" s="7" t="n"/>
-      <c r="I39" s="7" t="n"/>
-      <c r="J39" s="7" t="n"/>
-      <c r="K39" s="7" t="n"/>
-      <c r="L39" s="7" t="n"/>
+      <c r="H39" s="7" t="inlineStr"/>
+      <c r="I39" s="7" t="inlineStr"/>
+      <c r="J39" s="7" t="inlineStr"/>
+      <c r="K39" s="7" t="inlineStr"/>
+      <c r="L39" s="7" t="inlineStr"/>
       <c r="M39" s="7">
         <f>SUM(C39:L39)</f>
         <v/>
@@ -17956,18 +17956,18 @@
           <t>EG Group</t>
         </is>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C40" s="7" t="inlineStr"/>
+      <c r="D40" s="7" t="inlineStr"/>
+      <c r="E40" s="7" t="inlineStr"/>
+      <c r="F40" s="7" t="inlineStr"/>
+      <c r="G40" s="7" t="n">
         <v>43.57</v>
       </c>
-      <c r="D40" s="7" t="n"/>
-      <c r="E40" s="7" t="n"/>
-      <c r="F40" s="7" t="n"/>
-      <c r="G40" s="7" t="n"/>
-      <c r="H40" s="7" t="n"/>
-      <c r="I40" s="7" t="n"/>
-      <c r="J40" s="7" t="n"/>
-      <c r="K40" s="7" t="n"/>
-      <c r="L40" s="7" t="n"/>
+      <c r="H40" s="7" t="inlineStr"/>
+      <c r="I40" s="7" t="inlineStr"/>
+      <c r="J40" s="7" t="inlineStr"/>
+      <c r="K40" s="7" t="inlineStr"/>
+      <c r="L40" s="7" t="inlineStr"/>
       <c r="M40" s="7">
         <f>SUM(C40:L40)</f>
         <v/>
@@ -17988,18 +17988,18 @@
           <t>Coles Express</t>
         </is>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="7" t="inlineStr"/>
+      <c r="D41" s="7" t="inlineStr"/>
+      <c r="E41" s="7" t="inlineStr"/>
+      <c r="F41" s="7" t="inlineStr"/>
+      <c r="G41" s="7" t="n">
         <v>80.88</v>
       </c>
-      <c r="D41" s="7" t="n"/>
-      <c r="E41" s="7" t="n"/>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="7" t="n"/>
-      <c r="H41" s="7" t="n"/>
-      <c r="I41" s="7" t="n"/>
-      <c r="J41" s="7" t="n"/>
-      <c r="K41" s="7" t="n"/>
-      <c r="L41" s="7" t="n"/>
+      <c r="H41" s="7" t="inlineStr"/>
+      <c r="I41" s="7" t="inlineStr"/>
+      <c r="J41" s="7" t="inlineStr"/>
+      <c r="K41" s="7" t="inlineStr"/>
+      <c r="L41" s="7" t="inlineStr"/>
       <c r="M41" s="7">
         <f>SUM(C41:L41)</f>
         <v/>
@@ -18023,15 +18023,15 @@
       <c r="C42" s="7" t="n">
         <v>246.3</v>
       </c>
-      <c r="D42" s="7" t="n"/>
-      <c r="E42" s="7" t="n"/>
-      <c r="F42" s="7" t="n"/>
-      <c r="G42" s="7" t="n"/>
-      <c r="H42" s="7" t="n"/>
-      <c r="I42" s="7" t="n"/>
-      <c r="J42" s="7" t="n"/>
-      <c r="K42" s="7" t="n"/>
-      <c r="L42" s="7" t="n"/>
+      <c r="D42" s="7" t="inlineStr"/>
+      <c r="E42" s="7" t="inlineStr"/>
+      <c r="F42" s="7" t="inlineStr"/>
+      <c r="G42" s="7" t="inlineStr"/>
+      <c r="H42" s="7" t="inlineStr"/>
+      <c r="I42" s="7" t="inlineStr"/>
+      <c r="J42" s="7" t="inlineStr"/>
+      <c r="K42" s="7" t="inlineStr"/>
+      <c r="L42" s="7" t="inlineStr"/>
       <c r="M42" s="7">
         <f>SUM(C42:L42)</f>
         <v/>
@@ -18052,18 +18052,18 @@
           <t>Kmart</t>
         </is>
       </c>
-      <c r="C43" s="7" t="n">
+      <c r="C43" s="7" t="inlineStr"/>
+      <c r="D43" s="7" t="inlineStr"/>
+      <c r="E43" s="7" t="inlineStr"/>
+      <c r="F43" s="7" t="inlineStr"/>
+      <c r="G43" s="7" t="inlineStr"/>
+      <c r="H43" s="7" t="inlineStr"/>
+      <c r="I43" s="7" t="n">
         <v>36.5</v>
       </c>
-      <c r="D43" s="7" t="n"/>
-      <c r="E43" s="7" t="n"/>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="7" t="n"/>
-      <c r="H43" s="7" t="n"/>
-      <c r="I43" s="7" t="n"/>
-      <c r="J43" s="7" t="n"/>
-      <c r="K43" s="7" t="n"/>
-      <c r="L43" s="7" t="n"/>
+      <c r="J43" s="7" t="inlineStr"/>
+      <c r="K43" s="7" t="inlineStr"/>
+      <c r="L43" s="7" t="inlineStr"/>
       <c r="M43" s="7">
         <f>SUM(C43:L43)</f>
         <v/>
@@ -18084,18 +18084,18 @@
           <t>Kmart</t>
         </is>
       </c>
-      <c r="C44" s="7" t="n">
+      <c r="C44" s="7" t="inlineStr"/>
+      <c r="D44" s="7" t="inlineStr"/>
+      <c r="E44" s="7" t="inlineStr"/>
+      <c r="F44" s="7" t="inlineStr"/>
+      <c r="G44" s="7" t="inlineStr"/>
+      <c r="H44" s="7" t="inlineStr"/>
+      <c r="I44" s="7" t="n">
         <v>108</v>
       </c>
-      <c r="D44" s="7" t="n"/>
-      <c r="E44" s="7" t="n"/>
-      <c r="F44" s="7" t="n"/>
-      <c r="G44" s="7" t="n"/>
-      <c r="H44" s="7" t="n"/>
-      <c r="I44" s="7" t="n"/>
-      <c r="J44" s="7" t="n"/>
-      <c r="K44" s="7" t="n"/>
-      <c r="L44" s="7" t="n"/>
+      <c r="J44" s="7" t="inlineStr"/>
+      <c r="K44" s="7" t="inlineStr"/>
+      <c r="L44" s="7" t="inlineStr"/>
       <c r="M44" s="7">
         <f>SUM(C44:L44)</f>
         <v/>
@@ -18115,15 +18115,15 @@
       <c r="C45" s="7" t="n">
         <v>46.98</v>
       </c>
-      <c r="D45" s="7" t="n"/>
-      <c r="E45" s="7" t="n"/>
-      <c r="F45" s="7" t="n"/>
-      <c r="G45" s="7" t="n"/>
-      <c r="H45" s="7" t="n"/>
-      <c r="I45" s="7" t="n"/>
-      <c r="J45" s="7" t="n"/>
-      <c r="K45" s="7" t="n"/>
-      <c r="L45" s="7" t="n"/>
+      <c r="D45" s="7" t="inlineStr"/>
+      <c r="E45" s="7" t="inlineStr"/>
+      <c r="F45" s="7" t="inlineStr"/>
+      <c r="G45" s="7" t="inlineStr"/>
+      <c r="H45" s="7" t="inlineStr"/>
+      <c r="I45" s="7" t="inlineStr"/>
+      <c r="J45" s="7" t="inlineStr"/>
+      <c r="K45" s="7" t="inlineStr"/>
+      <c r="L45" s="7" t="inlineStr"/>
       <c r="M45" s="7">
         <f>SUM(C45:L45)</f>
         <v/>
@@ -18144,18 +18144,18 @@
           <t>IGA</t>
         </is>
       </c>
-      <c r="C46" s="7" t="n">
+      <c r="C46" s="7" t="inlineStr"/>
+      <c r="D46" s="7" t="inlineStr"/>
+      <c r="E46" s="7" t="inlineStr"/>
+      <c r="F46" s="7" t="inlineStr"/>
+      <c r="G46" s="7" t="inlineStr"/>
+      <c r="H46" s="7" t="inlineStr"/>
+      <c r="I46" s="7" t="n">
         <v>107.9</v>
       </c>
-      <c r="D46" s="7" t="n"/>
-      <c r="E46" s="7" t="n"/>
-      <c r="F46" s="7" t="n"/>
-      <c r="G46" s="7" t="n"/>
-      <c r="H46" s="7" t="n"/>
-      <c r="I46" s="7" t="n"/>
-      <c r="J46" s="7" t="n"/>
-      <c r="K46" s="7" t="n"/>
-      <c r="L46" s="7" t="n"/>
+      <c r="J46" s="7" t="inlineStr"/>
+      <c r="K46" s="7" t="inlineStr"/>
+      <c r="L46" s="7" t="inlineStr"/>
       <c r="M46" s="7">
         <f>SUM(C46:L46)</f>
         <v/>
@@ -18179,15 +18179,15 @@
       <c r="C47" s="7" t="n">
         <v>120.88</v>
       </c>
-      <c r="D47" s="7" t="n"/>
-      <c r="E47" s="7" t="n"/>
-      <c r="F47" s="7" t="n"/>
-      <c r="G47" s="7" t="n"/>
-      <c r="H47" s="7" t="n"/>
-      <c r="I47" s="7" t="n"/>
-      <c r="J47" s="7" t="n"/>
-      <c r="K47" s="7" t="n"/>
-      <c r="L47" s="7" t="n"/>
+      <c r="D47" s="7" t="inlineStr"/>
+      <c r="E47" s="7" t="inlineStr"/>
+      <c r="F47" s="7" t="inlineStr"/>
+      <c r="G47" s="7" t="inlineStr"/>
+      <c r="H47" s="7" t="inlineStr"/>
+      <c r="I47" s="7" t="inlineStr"/>
+      <c r="J47" s="7" t="inlineStr"/>
+      <c r="K47" s="7" t="inlineStr"/>
+      <c r="L47" s="7" t="inlineStr"/>
       <c r="M47" s="7">
         <f>SUM(C47:L47)</f>
         <v/>
@@ -18208,18 +18208,18 @@
           <t>7-Eleven</t>
         </is>
       </c>
-      <c r="C48" s="7" t="n">
+      <c r="C48" s="7" t="inlineStr"/>
+      <c r="D48" s="7" t="inlineStr"/>
+      <c r="E48" s="7" t="inlineStr"/>
+      <c r="F48" s="7" t="inlineStr"/>
+      <c r="G48" s="7" t="n">
         <v>73.75</v>
       </c>
-      <c r="D48" s="7" t="n"/>
-      <c r="E48" s="7" t="n"/>
-      <c r="F48" s="7" t="n"/>
-      <c r="G48" s="7" t="n"/>
-      <c r="H48" s="7" t="n"/>
-      <c r="I48" s="7" t="n"/>
-      <c r="J48" s="7" t="n"/>
-      <c r="K48" s="7" t="n"/>
-      <c r="L48" s="7" t="n"/>
+      <c r="H48" s="7" t="inlineStr"/>
+      <c r="I48" s="7" t="inlineStr"/>
+      <c r="J48" s="7" t="inlineStr"/>
+      <c r="K48" s="7" t="inlineStr"/>
+      <c r="L48" s="7" t="inlineStr"/>
       <c r="M48" s="7">
         <f>SUM(C48:L48)</f>
         <v/>
@@ -18240,18 +18240,18 @@
           <t>Coles Express</t>
         </is>
       </c>
-      <c r="C49" s="7" t="n">
+      <c r="C49" s="7" t="inlineStr"/>
+      <c r="D49" s="7" t="inlineStr"/>
+      <c r="E49" s="7" t="inlineStr"/>
+      <c r="F49" s="7" t="inlineStr"/>
+      <c r="G49" s="7" t="n">
         <v>28.48</v>
       </c>
-      <c r="D49" s="7" t="n"/>
-      <c r="E49" s="7" t="n"/>
-      <c r="F49" s="7" t="n"/>
-      <c r="G49" s="7" t="n"/>
-      <c r="H49" s="7" t="n"/>
-      <c r="I49" s="7" t="n"/>
-      <c r="J49" s="7" t="n"/>
-      <c r="K49" s="7" t="n"/>
-      <c r="L49" s="7" t="n"/>
+      <c r="H49" s="7" t="inlineStr"/>
+      <c r="I49" s="7" t="inlineStr"/>
+      <c r="J49" s="7" t="inlineStr"/>
+      <c r="K49" s="7" t="inlineStr"/>
+      <c r="L49" s="7" t="inlineStr"/>
       <c r="M49" s="7">
         <f>SUM(C49:L49)</f>
         <v/>
@@ -18272,18 +18272,18 @@
           <t>Xero</t>
         </is>
       </c>
-      <c r="C50" s="7" t="n">
+      <c r="C50" s="7" t="inlineStr"/>
+      <c r="D50" s="7" t="inlineStr"/>
+      <c r="E50" s="7" t="inlineStr"/>
+      <c r="F50" s="7" t="inlineStr"/>
+      <c r="G50" s="7" t="inlineStr"/>
+      <c r="H50" s="7" t="n">
         <v>59</v>
       </c>
-      <c r="D50" s="7" t="n"/>
-      <c r="E50" s="7" t="n"/>
-      <c r="F50" s="7" t="n"/>
-      <c r="G50" s="7" t="n"/>
-      <c r="H50" s="7" t="n"/>
-      <c r="I50" s="7" t="n"/>
-      <c r="J50" s="7" t="n"/>
-      <c r="K50" s="7" t="n"/>
-      <c r="L50" s="7" t="n"/>
+      <c r="I50" s="7" t="inlineStr"/>
+      <c r="J50" s="7" t="inlineStr"/>
+      <c r="K50" s="7" t="inlineStr"/>
+      <c r="L50" s="7" t="inlineStr"/>
       <c r="M50" s="7">
         <f>SUM(C50:L50)</f>
         <v/>
@@ -18307,15 +18307,15 @@
       <c r="C51" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="D51" s="7" t="n"/>
-      <c r="E51" s="7" t="n"/>
-      <c r="F51" s="7" t="n"/>
-      <c r="G51" s="7" t="n"/>
-      <c r="H51" s="7" t="n"/>
-      <c r="I51" s="7" t="n"/>
-      <c r="J51" s="7" t="n"/>
-      <c r="K51" s="7" t="n"/>
-      <c r="L51" s="7" t="n"/>
+      <c r="D51" s="7" t="inlineStr"/>
+      <c r="E51" s="7" t="inlineStr"/>
+      <c r="F51" s="7" t="inlineStr"/>
+      <c r="G51" s="7" t="inlineStr"/>
+      <c r="H51" s="7" t="inlineStr"/>
+      <c r="I51" s="7" t="inlineStr"/>
+      <c r="J51" s="7" t="inlineStr"/>
+      <c r="K51" s="7" t="inlineStr"/>
+      <c r="L51" s="7" t="inlineStr"/>
       <c r="M51" s="7">
         <f>SUM(C51:L51)</f>
         <v/>
@@ -18332,18 +18332,18 @@
           <t>7-Eleven</t>
         </is>
       </c>
-      <c r="C52" s="7" t="n">
+      <c r="C52" s="7" t="inlineStr"/>
+      <c r="D52" s="7" t="inlineStr"/>
+      <c r="E52" s="7" t="inlineStr"/>
+      <c r="F52" s="7" t="inlineStr"/>
+      <c r="G52" s="7" t="n">
         <v>75.73</v>
       </c>
-      <c r="D52" s="7" t="n"/>
-      <c r="E52" s="7" t="n"/>
-      <c r="F52" s="7" t="n"/>
-      <c r="G52" s="7" t="n"/>
-      <c r="H52" s="7" t="n"/>
-      <c r="I52" s="7" t="n"/>
-      <c r="J52" s="7" t="n"/>
-      <c r="K52" s="7" t="n"/>
-      <c r="L52" s="7" t="n"/>
+      <c r="H52" s="7" t="inlineStr"/>
+      <c r="I52" s="7" t="inlineStr"/>
+      <c r="J52" s="7" t="inlineStr"/>
+      <c r="K52" s="7" t="inlineStr"/>
+      <c r="L52" s="7" t="inlineStr"/>
       <c r="M52" s="7">
         <f>SUM(C52:L52)</f>
         <v/>
@@ -18364,18 +18364,18 @@
           <t>Woolworths</t>
         </is>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="7" t="inlineStr"/>
+      <c r="D53" s="7" t="inlineStr"/>
+      <c r="E53" s="7" t="inlineStr"/>
+      <c r="F53" s="7" t="inlineStr"/>
+      <c r="G53" s="7" t="inlineStr"/>
+      <c r="H53" s="7" t="inlineStr"/>
+      <c r="I53" s="7" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="D53" s="7" t="n"/>
-      <c r="E53" s="7" t="n"/>
-      <c r="F53" s="7" t="n"/>
-      <c r="G53" s="7" t="n"/>
-      <c r="H53" s="7" t="n"/>
-      <c r="I53" s="7" t="n"/>
-      <c r="J53" s="7" t="n"/>
-      <c r="K53" s="7" t="n"/>
-      <c r="L53" s="7" t="n"/>
+      <c r="J53" s="7" t="inlineStr"/>
+      <c r="K53" s="7" t="inlineStr"/>
+      <c r="L53" s="7" t="inlineStr"/>
       <c r="M53" s="7">
         <f>SUM(C53:L53)</f>
         <v/>
@@ -18392,18 +18392,18 @@
           <t>EG Group</t>
         </is>
       </c>
-      <c r="C54" s="7" t="n">
+      <c r="C54" s="7" t="inlineStr"/>
+      <c r="D54" s="7" t="inlineStr"/>
+      <c r="E54" s="7" t="inlineStr"/>
+      <c r="F54" s="7" t="inlineStr"/>
+      <c r="G54" s="7" t="n">
         <v>51.33</v>
       </c>
-      <c r="D54" s="7" t="n"/>
-      <c r="E54" s="7" t="n"/>
-      <c r="F54" s="7" t="n"/>
-      <c r="G54" s="7" t="n"/>
-      <c r="H54" s="7" t="n"/>
-      <c r="I54" s="7" t="n"/>
-      <c r="J54" s="7" t="n"/>
-      <c r="K54" s="7" t="n"/>
-      <c r="L54" s="7" t="n"/>
+      <c r="H54" s="7" t="inlineStr"/>
+      <c r="I54" s="7" t="inlineStr"/>
+      <c r="J54" s="7" t="inlineStr"/>
+      <c r="K54" s="7" t="inlineStr"/>
+      <c r="L54" s="7" t="inlineStr"/>
       <c r="M54" s="7">
         <f>SUM(C54:L54)</f>
         <v/>
@@ -18424,18 +18424,18 @@
           <t>IGA</t>
         </is>
       </c>
-      <c r="C55" s="7" t="n">
+      <c r="C55" s="7" t="inlineStr"/>
+      <c r="D55" s="7" t="inlineStr"/>
+      <c r="E55" s="7" t="inlineStr"/>
+      <c r="F55" s="7" t="inlineStr"/>
+      <c r="G55" s="7" t="inlineStr"/>
+      <c r="H55" s="7" t="inlineStr"/>
+      <c r="I55" s="7" t="n">
         <v>120.15</v>
       </c>
-      <c r="D55" s="7" t="n"/>
-      <c r="E55" s="7" t="n"/>
-      <c r="F55" s="7" t="n"/>
-      <c r="G55" s="7" t="n"/>
-      <c r="H55" s="7" t="n"/>
-      <c r="I55" s="7" t="n"/>
-      <c r="J55" s="7" t="n"/>
-      <c r="K55" s="7" t="n"/>
-      <c r="L55" s="7" t="n"/>
+      <c r="J55" s="7" t="inlineStr"/>
+      <c r="K55" s="7" t="inlineStr"/>
+      <c r="L55" s="7" t="inlineStr"/>
       <c r="M55" s="7">
         <f>SUM(C55:L55)</f>
         <v/>
@@ -18459,15 +18459,15 @@
       <c r="C56" s="7" t="n">
         <v>4.32</v>
       </c>
-      <c r="D56" s="7" t="n"/>
-      <c r="E56" s="7" t="n"/>
-      <c r="F56" s="7" t="n"/>
-      <c r="G56" s="7" t="n"/>
-      <c r="H56" s="7" t="n"/>
-      <c r="I56" s="7" t="n"/>
-      <c r="J56" s="7" t="n"/>
-      <c r="K56" s="7" t="n"/>
-      <c r="L56" s="7" t="n"/>
+      <c r="D56" s="7" t="inlineStr"/>
+      <c r="E56" s="7" t="inlineStr"/>
+      <c r="F56" s="7" t="inlineStr"/>
+      <c r="G56" s="7" t="inlineStr"/>
+      <c r="H56" s="7" t="inlineStr"/>
+      <c r="I56" s="7" t="inlineStr"/>
+      <c r="J56" s="7" t="inlineStr"/>
+      <c r="K56" s="7" t="inlineStr"/>
+      <c r="L56" s="7" t="inlineStr"/>
       <c r="M56" s="7">
         <f>SUM(C56:L56)</f>
         <v/>
@@ -18484,18 +18484,18 @@
           <t>7-Eleven</t>
         </is>
       </c>
-      <c r="C57" s="7" t="n">
+      <c r="C57" s="7" t="inlineStr"/>
+      <c r="D57" s="7" t="inlineStr"/>
+      <c r="E57" s="7" t="inlineStr"/>
+      <c r="F57" s="7" t="inlineStr"/>
+      <c r="G57" s="7" t="n">
         <v>67.77</v>
       </c>
-      <c r="D57" s="7" t="n"/>
-      <c r="E57" s="7" t="n"/>
-      <c r="F57" s="7" t="n"/>
-      <c r="G57" s="7" t="n"/>
-      <c r="H57" s="7" t="n"/>
-      <c r="I57" s="7" t="n"/>
-      <c r="J57" s="7" t="n"/>
-      <c r="K57" s="7" t="n"/>
-      <c r="L57" s="7" t="n"/>
+      <c r="H57" s="7" t="inlineStr"/>
+      <c r="I57" s="7" t="inlineStr"/>
+      <c r="J57" s="7" t="inlineStr"/>
+      <c r="K57" s="7" t="inlineStr"/>
+      <c r="L57" s="7" t="inlineStr"/>
       <c r="M57" s="7">
         <f>SUM(C57:L57)</f>
         <v/>
@@ -18512,18 +18512,18 @@
           <t>Kmart</t>
         </is>
       </c>
-      <c r="C58" s="7" t="n">
+      <c r="C58" s="7" t="inlineStr"/>
+      <c r="D58" s="7" t="inlineStr"/>
+      <c r="E58" s="7" t="inlineStr"/>
+      <c r="F58" s="7" t="inlineStr"/>
+      <c r="G58" s="7" t="inlineStr"/>
+      <c r="H58" s="7" t="inlineStr"/>
+      <c r="I58" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="D58" s="7" t="n"/>
-      <c r="E58" s="7" t="n"/>
-      <c r="F58" s="7" t="n"/>
-      <c r="G58" s="7" t="n"/>
-      <c r="H58" s="7" t="n"/>
-      <c r="I58" s="7" t="n"/>
-      <c r="J58" s="7" t="n"/>
-      <c r="K58" s="7" t="n"/>
-      <c r="L58" s="7" t="n"/>
+      <c r="J58" s="7" t="inlineStr"/>
+      <c r="K58" s="7" t="inlineStr"/>
+      <c r="L58" s="7" t="inlineStr"/>
       <c r="M58" s="7">
         <f>SUM(C58:L58)</f>
         <v/>
@@ -18543,15 +18543,15 @@
       <c r="C59" s="7" t="n">
         <v>229.5</v>
       </c>
-      <c r="D59" s="7" t="n"/>
-      <c r="E59" s="7" t="n"/>
-      <c r="F59" s="7" t="n"/>
-      <c r="G59" s="7" t="n"/>
-      <c r="H59" s="7" t="n"/>
-      <c r="I59" s="7" t="n"/>
-      <c r="J59" s="7" t="n"/>
-      <c r="K59" s="7" t="n"/>
-      <c r="L59" s="7" t="n"/>
+      <c r="D59" s="7" t="inlineStr"/>
+      <c r="E59" s="7" t="inlineStr"/>
+      <c r="F59" s="7" t="inlineStr"/>
+      <c r="G59" s="7" t="inlineStr"/>
+      <c r="H59" s="7" t="inlineStr"/>
+      <c r="I59" s="7" t="inlineStr"/>
+      <c r="J59" s="7" t="inlineStr"/>
+      <c r="K59" s="7" t="inlineStr"/>
+      <c r="L59" s="7" t="inlineStr"/>
       <c r="M59" s="7">
         <f>SUM(C59:L59)</f>
         <v/>
@@ -18572,18 +18572,18 @@
           <t>McDonalds</t>
         </is>
       </c>
-      <c r="C60" s="7" t="n">
+      <c r="C60" s="7" t="inlineStr"/>
+      <c r="D60" s="7" t="n">
         <v>26.8</v>
       </c>
-      <c r="D60" s="7" t="n"/>
-      <c r="E60" s="7" t="n"/>
-      <c r="F60" s="7" t="n"/>
-      <c r="G60" s="7" t="n"/>
-      <c r="H60" s="7" t="n"/>
-      <c r="I60" s="7" t="n"/>
-      <c r="J60" s="7" t="n"/>
-      <c r="K60" s="7" t="n"/>
-      <c r="L60" s="7" t="n"/>
+      <c r="E60" s="7" t="inlineStr"/>
+      <c r="F60" s="7" t="inlineStr"/>
+      <c r="G60" s="7" t="inlineStr"/>
+      <c r="H60" s="7" t="inlineStr"/>
+      <c r="I60" s="7" t="inlineStr"/>
+      <c r="J60" s="7" t="inlineStr"/>
+      <c r="K60" s="7" t="inlineStr"/>
+      <c r="L60" s="7" t="inlineStr"/>
       <c r="M60" s="7">
         <f>SUM(C60:L60)</f>
         <v/>
@@ -18600,18 +18600,18 @@
           <t>Belong</t>
         </is>
       </c>
-      <c r="C61" s="7" t="n">
+      <c r="C61" s="7" t="inlineStr"/>
+      <c r="D61" s="7" t="inlineStr"/>
+      <c r="E61" s="7" t="inlineStr"/>
+      <c r="F61" s="7" t="inlineStr"/>
+      <c r="G61" s="7" t="inlineStr"/>
+      <c r="H61" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="D61" s="7" t="n"/>
-      <c r="E61" s="7" t="n"/>
-      <c r="F61" s="7" t="n"/>
-      <c r="G61" s="7" t="n"/>
-      <c r="H61" s="7" t="n"/>
-      <c r="I61" s="7" t="n"/>
-      <c r="J61" s="7" t="n"/>
-      <c r="K61" s="7" t="n"/>
-      <c r="L61" s="7" t="n"/>
+      <c r="I61" s="7" t="inlineStr"/>
+      <c r="J61" s="7" t="inlineStr"/>
+      <c r="K61" s="7" t="inlineStr"/>
+      <c r="L61" s="7" t="inlineStr"/>
       <c r="M61" s="7">
         <f>SUM(C61:L61)</f>
         <v/>
@@ -18632,18 +18632,18 @@
           <t>Bunnings</t>
         </is>
       </c>
-      <c r="C62" s="7" t="n">
+      <c r="C62" s="7" t="inlineStr"/>
+      <c r="D62" s="7" t="inlineStr"/>
+      <c r="E62" s="7" t="n">
         <v>24.69</v>
       </c>
-      <c r="D62" s="7" t="n"/>
-      <c r="E62" s="7" t="n"/>
-      <c r="F62" s="7" t="n"/>
-      <c r="G62" s="7" t="n"/>
-      <c r="H62" s="7" t="n"/>
-      <c r="I62" s="7" t="n"/>
-      <c r="J62" s="7" t="n"/>
-      <c r="K62" s="7" t="n"/>
-      <c r="L62" s="7" t="n"/>
+      <c r="F62" s="7" t="inlineStr"/>
+      <c r="G62" s="7" t="inlineStr"/>
+      <c r="H62" s="7" t="inlineStr"/>
+      <c r="I62" s="7" t="inlineStr"/>
+      <c r="J62" s="7" t="inlineStr"/>
+      <c r="K62" s="7" t="inlineStr"/>
+      <c r="L62" s="7" t="inlineStr"/>
       <c r="M62" s="7">
         <f>SUM(C62:L62)</f>
         <v/>
@@ -18664,18 +18664,18 @@
           <t>7-Eleven</t>
         </is>
       </c>
-      <c r="C63" s="7" t="n">
+      <c r="C63" s="7" t="inlineStr"/>
+      <c r="D63" s="7" t="inlineStr"/>
+      <c r="E63" s="7" t="inlineStr"/>
+      <c r="F63" s="7" t="inlineStr"/>
+      <c r="G63" s="7" t="n">
         <v>78.92</v>
       </c>
-      <c r="D63" s="7" t="n"/>
-      <c r="E63" s="7" t="n"/>
-      <c r="F63" s="7" t="n"/>
-      <c r="G63" s="7" t="n"/>
-      <c r="H63" s="7" t="n"/>
-      <c r="I63" s="7" t="n"/>
-      <c r="J63" s="7" t="n"/>
-      <c r="K63" s="7" t="n"/>
-      <c r="L63" s="7" t="n"/>
+      <c r="H63" s="7" t="inlineStr"/>
+      <c r="I63" s="7" t="inlineStr"/>
+      <c r="J63" s="7" t="inlineStr"/>
+      <c r="K63" s="7" t="inlineStr"/>
+      <c r="L63" s="7" t="inlineStr"/>
       <c r="M63" s="7">
         <f>SUM(C63:L63)</f>
         <v/>
@@ -18692,18 +18692,18 @@
           <t>McDonalds</t>
         </is>
       </c>
-      <c r="C64" s="7" t="n">
+      <c r="C64" s="7" t="inlineStr"/>
+      <c r="D64" s="7" t="n">
         <v>67.5</v>
       </c>
-      <c r="D64" s="7" t="n"/>
-      <c r="E64" s="7" t="n"/>
-      <c r="F64" s="7" t="n"/>
-      <c r="G64" s="7" t="n"/>
-      <c r="H64" s="7" t="n"/>
-      <c r="I64" s="7" t="n"/>
-      <c r="J64" s="7" t="n"/>
-      <c r="K64" s="7" t="n"/>
-      <c r="L64" s="7" t="n"/>
+      <c r="E64" s="7" t="inlineStr"/>
+      <c r="F64" s="7" t="inlineStr"/>
+      <c r="G64" s="7" t="inlineStr"/>
+      <c r="H64" s="7" t="inlineStr"/>
+      <c r="I64" s="7" t="inlineStr"/>
+      <c r="J64" s="7" t="inlineStr"/>
+      <c r="K64" s="7" t="inlineStr"/>
+      <c r="L64" s="7" t="inlineStr"/>
       <c r="M64" s="7">
         <f>SUM(C64:L64)</f>
         <v/>
@@ -18720,18 +18720,18 @@
           <t>Chemist Warehouse</t>
         </is>
       </c>
-      <c r="C65" s="7" t="n">
+      <c r="C65" s="7" t="inlineStr"/>
+      <c r="D65" s="7" t="inlineStr"/>
+      <c r="E65" s="7" t="inlineStr"/>
+      <c r="F65" s="7" t="inlineStr"/>
+      <c r="G65" s="7" t="inlineStr"/>
+      <c r="H65" s="7" t="inlineStr"/>
+      <c r="I65" s="7" t="n">
         <v>56.49</v>
       </c>
-      <c r="D65" s="7" t="n"/>
-      <c r="E65" s="7" t="n"/>
-      <c r="F65" s="7" t="n"/>
-      <c r="G65" s="7" t="n"/>
-      <c r="H65" s="7" t="n"/>
-      <c r="I65" s="7" t="n"/>
-      <c r="J65" s="7" t="n"/>
-      <c r="K65" s="7" t="n"/>
-      <c r="L65" s="7" t="n"/>
+      <c r="J65" s="7" t="inlineStr"/>
+      <c r="K65" s="7" t="inlineStr"/>
+      <c r="L65" s="7" t="inlineStr"/>
       <c r="M65" s="7">
         <f>SUM(C65:L65)</f>
         <v/>
@@ -18752,18 +18752,18 @@
           <t>Healthy Pets</t>
         </is>
       </c>
-      <c r="C66" s="7" t="n">
+      <c r="C66" s="7" t="inlineStr"/>
+      <c r="D66" s="7" t="inlineStr"/>
+      <c r="E66" s="7" t="inlineStr"/>
+      <c r="F66" s="7" t="inlineStr"/>
+      <c r="G66" s="7" t="inlineStr"/>
+      <c r="H66" s="7" t="inlineStr"/>
+      <c r="I66" s="7" t="inlineStr"/>
+      <c r="J66" s="7" t="inlineStr"/>
+      <c r="K66" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="D66" s="7" t="n"/>
-      <c r="E66" s="7" t="n"/>
-      <c r="F66" s="7" t="n"/>
-      <c r="G66" s="7" t="n"/>
-      <c r="H66" s="7" t="n"/>
-      <c r="I66" s="7" t="n"/>
-      <c r="J66" s="7" t="n"/>
-      <c r="K66" s="7" t="n"/>
-      <c r="L66" s="7" t="n"/>
+      <c r="L66" s="7" t="inlineStr"/>
       <c r="M66" s="7">
         <f>SUM(C66:L66)</f>
         <v/>
@@ -18783,15 +18783,15 @@
       <c r="C67" s="7" t="n">
         <v>86.8</v>
       </c>
-      <c r="D67" s="7" t="n"/>
-      <c r="E67" s="7" t="n"/>
-      <c r="F67" s="7" t="n"/>
-      <c r="G67" s="7" t="n"/>
-      <c r="H67" s="7" t="n"/>
-      <c r="I67" s="7" t="n"/>
-      <c r="J67" s="7" t="n"/>
-      <c r="K67" s="7" t="n"/>
-      <c r="L67" s="7" t="n"/>
+      <c r="D67" s="7" t="inlineStr"/>
+      <c r="E67" s="7" t="inlineStr"/>
+      <c r="F67" s="7" t="inlineStr"/>
+      <c r="G67" s="7" t="inlineStr"/>
+      <c r="H67" s="7" t="inlineStr"/>
+      <c r="I67" s="7" t="inlineStr"/>
+      <c r="J67" s="7" t="inlineStr"/>
+      <c r="K67" s="7" t="inlineStr"/>
+      <c r="L67" s="7" t="inlineStr"/>
       <c r="M67" s="7">
         <f>SUM(C67:L67)</f>
         <v/>
@@ -18811,15 +18811,15 @@
       <c r="C68" s="7" t="n">
         <v>43.37</v>
       </c>
-      <c r="D68" s="7" t="n"/>
-      <c r="E68" s="7" t="n"/>
-      <c r="F68" s="7" t="n"/>
-      <c r="G68" s="7" t="n"/>
-      <c r="H68" s="7" t="n"/>
-      <c r="I68" s="7" t="n"/>
-      <c r="J68" s="7" t="n"/>
-      <c r="K68" s="7" t="n"/>
-      <c r="L68" s="7" t="n"/>
+      <c r="D68" s="7" t="inlineStr"/>
+      <c r="E68" s="7" t="inlineStr"/>
+      <c r="F68" s="7" t="inlineStr"/>
+      <c r="G68" s="7" t="inlineStr"/>
+      <c r="H68" s="7" t="inlineStr"/>
+      <c r="I68" s="7" t="inlineStr"/>
+      <c r="J68" s="7" t="inlineStr"/>
+      <c r="K68" s="7" t="inlineStr"/>
+      <c r="L68" s="7" t="inlineStr"/>
       <c r="M68" s="7">
         <f>SUM(C68:L68)</f>
         <v/>
@@ -18843,15 +18843,15 @@
       <c r="C69" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="D69" s="7" t="n"/>
-      <c r="E69" s="7" t="n"/>
-      <c r="F69" s="7" t="n"/>
-      <c r="G69" s="7" t="n"/>
-      <c r="H69" s="7" t="n"/>
-      <c r="I69" s="7" t="n"/>
-      <c r="J69" s="7" t="n"/>
-      <c r="K69" s="7" t="n"/>
-      <c r="L69" s="7" t="n"/>
+      <c r="D69" s="7" t="inlineStr"/>
+      <c r="E69" s="7" t="inlineStr"/>
+      <c r="F69" s="7" t="inlineStr"/>
+      <c r="G69" s="7" t="inlineStr"/>
+      <c r="H69" s="7" t="inlineStr"/>
+      <c r="I69" s="7" t="inlineStr"/>
+      <c r="J69" s="7" t="inlineStr"/>
+      <c r="K69" s="7" t="inlineStr"/>
+      <c r="L69" s="7" t="inlineStr"/>
       <c r="M69" s="7">
         <f>SUM(C69:L69)</f>
         <v/>
@@ -18875,15 +18875,15 @@
       <c r="C70" s="7" t="n">
         <v>1169</v>
       </c>
-      <c r="D70" s="7" t="n"/>
-      <c r="E70" s="7" t="n"/>
-      <c r="F70" s="7" t="n"/>
-      <c r="G70" s="7" t="n"/>
-      <c r="H70" s="7" t="n"/>
-      <c r="I70" s="7" t="n"/>
-      <c r="J70" s="7" t="n"/>
-      <c r="K70" s="7" t="n"/>
-      <c r="L70" s="7" t="n"/>
+      <c r="D70" s="7" t="inlineStr"/>
+      <c r="E70" s="7" t="inlineStr"/>
+      <c r="F70" s="7" t="inlineStr"/>
+      <c r="G70" s="7" t="inlineStr"/>
+      <c r="H70" s="7" t="inlineStr"/>
+      <c r="I70" s="7" t="inlineStr"/>
+      <c r="J70" s="7" t="inlineStr"/>
+      <c r="K70" s="7" t="inlineStr"/>
+      <c r="L70" s="7" t="inlineStr"/>
       <c r="M70" s="7">
         <f>SUM(C70:L70)</f>
         <v/>
@@ -18907,15 +18907,15 @@
       <c r="C71" s="7" t="n">
         <v>2067.89</v>
       </c>
-      <c r="D71" s="7" t="n"/>
-      <c r="E71" s="7" t="n"/>
-      <c r="F71" s="7" t="n"/>
-      <c r="G71" s="7" t="n"/>
-      <c r="H71" s="7" t="n"/>
-      <c r="I71" s="7" t="n"/>
-      <c r="J71" s="7" t="n"/>
-      <c r="K71" s="7" t="n"/>
-      <c r="L71" s="7" t="n"/>
+      <c r="D71" s="7" t="inlineStr"/>
+      <c r="E71" s="7" t="inlineStr"/>
+      <c r="F71" s="7" t="inlineStr"/>
+      <c r="G71" s="7" t="inlineStr"/>
+      <c r="H71" s="7" t="inlineStr"/>
+      <c r="I71" s="7" t="inlineStr"/>
+      <c r="J71" s="7" t="inlineStr"/>
+      <c r="K71" s="7" t="inlineStr"/>
+      <c r="L71" s="7" t="inlineStr"/>
       <c r="M71" s="7">
         <f>SUM(C71:L71)</f>
         <v/>
@@ -18935,15 +18935,15 @@
       <c r="C72" s="7" t="n">
         <v>62.04</v>
       </c>
-      <c r="D72" s="7" t="n"/>
-      <c r="E72" s="7" t="n"/>
-      <c r="F72" s="7" t="n"/>
-      <c r="G72" s="7" t="n"/>
-      <c r="H72" s="7" t="n"/>
-      <c r="I72" s="7" t="n"/>
-      <c r="J72" s="7" t="n"/>
-      <c r="K72" s="7" t="n"/>
-      <c r="L72" s="7" t="n"/>
+      <c r="D72" s="7" t="inlineStr"/>
+      <c r="E72" s="7" t="inlineStr"/>
+      <c r="F72" s="7" t="inlineStr"/>
+      <c r="G72" s="7" t="inlineStr"/>
+      <c r="H72" s="7" t="inlineStr"/>
+      <c r="I72" s="7" t="inlineStr"/>
+      <c r="J72" s="7" t="inlineStr"/>
+      <c r="K72" s="7" t="inlineStr"/>
+      <c r="L72" s="7" t="inlineStr"/>
       <c r="M72" s="7">
         <f>SUM(C72:L72)</f>
         <v/>
@@ -18967,15 +18967,15 @@
       <c r="C73" s="7" t="n">
         <v>15.15</v>
       </c>
-      <c r="D73" s="7" t="n"/>
-      <c r="E73" s="7" t="n"/>
-      <c r="F73" s="7" t="n"/>
-      <c r="G73" s="7" t="n"/>
-      <c r="H73" s="7" t="n"/>
-      <c r="I73" s="7" t="n"/>
-      <c r="J73" s="7" t="n"/>
-      <c r="K73" s="7" t="n"/>
-      <c r="L73" s="7" t="n"/>
+      <c r="D73" s="7" t="inlineStr"/>
+      <c r="E73" s="7" t="inlineStr"/>
+      <c r="F73" s="7" t="inlineStr"/>
+      <c r="G73" s="7" t="inlineStr"/>
+      <c r="H73" s="7" t="inlineStr"/>
+      <c r="I73" s="7" t="inlineStr"/>
+      <c r="J73" s="7" t="inlineStr"/>
+      <c r="K73" s="7" t="inlineStr"/>
+      <c r="L73" s="7" t="inlineStr"/>
       <c r="M73" s="7">
         <f>SUM(C73:L73)</f>
         <v/>
@@ -18995,15 +18995,15 @@
       <c r="C74" s="7" t="n">
         <v>89.81</v>
       </c>
-      <c r="D74" s="7" t="n"/>
-      <c r="E74" s="7" t="n"/>
-      <c r="F74" s="7" t="n"/>
-      <c r="G74" s="7" t="n"/>
-      <c r="H74" s="7" t="n"/>
-      <c r="I74" s="7" t="n"/>
-      <c r="J74" s="7" t="n"/>
-      <c r="K74" s="7" t="n"/>
-      <c r="L74" s="7" t="n"/>
+      <c r="D74" s="7" t="inlineStr"/>
+      <c r="E74" s="7" t="inlineStr"/>
+      <c r="F74" s="7" t="inlineStr"/>
+      <c r="G74" s="7" t="inlineStr"/>
+      <c r="H74" s="7" t="inlineStr"/>
+      <c r="I74" s="7" t="inlineStr"/>
+      <c r="J74" s="7" t="inlineStr"/>
+      <c r="K74" s="7" t="inlineStr"/>
+      <c r="L74" s="7" t="inlineStr"/>
       <c r="M74" s="7">
         <f>SUM(C74:L74)</f>
         <v/>
@@ -19024,18 +19024,18 @@
           <t>EG Group</t>
         </is>
       </c>
-      <c r="C75" s="7" t="n">
+      <c r="C75" s="7" t="inlineStr"/>
+      <c r="D75" s="7" t="inlineStr"/>
+      <c r="E75" s="7" t="inlineStr"/>
+      <c r="F75" s="7" t="inlineStr"/>
+      <c r="G75" s="7" t="n">
         <v>92.76000000000001</v>
       </c>
-      <c r="D75" s="7" t="n"/>
-      <c r="E75" s="7" t="n"/>
-      <c r="F75" s="7" t="n"/>
-      <c r="G75" s="7" t="n"/>
-      <c r="H75" s="7" t="n"/>
-      <c r="I75" s="7" t="n"/>
-      <c r="J75" s="7" t="n"/>
-      <c r="K75" s="7" t="n"/>
-      <c r="L75" s="7" t="n"/>
+      <c r="H75" s="7" t="inlineStr"/>
+      <c r="I75" s="7" t="inlineStr"/>
+      <c r="J75" s="7" t="inlineStr"/>
+      <c r="K75" s="7" t="inlineStr"/>
+      <c r="L75" s="7" t="inlineStr"/>
       <c r="M75" s="7">
         <f>SUM(C75:L75)</f>
         <v/>
@@ -19055,15 +19055,15 @@
       <c r="C76" s="7" t="n">
         <v>75.47</v>
       </c>
-      <c r="D76" s="7" t="n"/>
-      <c r="E76" s="7" t="n"/>
-      <c r="F76" s="7" t="n"/>
-      <c r="G76" s="7" t="n"/>
-      <c r="H76" s="7" t="n"/>
-      <c r="I76" s="7" t="n"/>
-      <c r="J76" s="7" t="n"/>
-      <c r="K76" s="7" t="n"/>
-      <c r="L76" s="7" t="n"/>
+      <c r="D76" s="7" t="inlineStr"/>
+      <c r="E76" s="7" t="inlineStr"/>
+      <c r="F76" s="7" t="inlineStr"/>
+      <c r="G76" s="7" t="inlineStr"/>
+      <c r="H76" s="7" t="inlineStr"/>
+      <c r="I76" s="7" t="inlineStr"/>
+      <c r="J76" s="7" t="inlineStr"/>
+      <c r="K76" s="7" t="inlineStr"/>
+      <c r="L76" s="7" t="inlineStr"/>
       <c r="M76" s="7">
         <f>SUM(C76:L76)</f>
         <v/>
@@ -19087,15 +19087,15 @@
       <c r="C77" s="7" t="n">
         <v>1800</v>
       </c>
-      <c r="D77" s="7" t="n"/>
-      <c r="E77" s="7" t="n"/>
-      <c r="F77" s="7" t="n"/>
-      <c r="G77" s="7" t="n"/>
-      <c r="H77" s="7" t="n"/>
-      <c r="I77" s="7" t="n"/>
-      <c r="J77" s="7" t="n"/>
-      <c r="K77" s="7" t="n"/>
-      <c r="L77" s="7" t="n"/>
+      <c r="D77" s="7" t="inlineStr"/>
+      <c r="E77" s="7" t="inlineStr"/>
+      <c r="F77" s="7" t="inlineStr"/>
+      <c r="G77" s="7" t="inlineStr"/>
+      <c r="H77" s="7" t="inlineStr"/>
+      <c r="I77" s="7" t="inlineStr"/>
+      <c r="J77" s="7" t="inlineStr"/>
+      <c r="K77" s="7" t="inlineStr"/>
+      <c r="L77" s="7" t="inlineStr"/>
       <c r="M77" s="7">
         <f>SUM(C77:L77)</f>
         <v/>
@@ -19112,18 +19112,18 @@
           <t>Woolworths</t>
         </is>
       </c>
-      <c r="C78" s="7" t="n">
+      <c r="C78" s="7" t="inlineStr"/>
+      <c r="D78" s="7" t="inlineStr"/>
+      <c r="E78" s="7" t="inlineStr"/>
+      <c r="F78" s="7" t="inlineStr"/>
+      <c r="G78" s="7" t="inlineStr"/>
+      <c r="H78" s="7" t="inlineStr"/>
+      <c r="I78" s="7" t="n">
         <v>258.75</v>
       </c>
-      <c r="D78" s="7" t="n"/>
-      <c r="E78" s="7" t="n"/>
-      <c r="F78" s="7" t="n"/>
-      <c r="G78" s="7" t="n"/>
-      <c r="H78" s="7" t="n"/>
-      <c r="I78" s="7" t="n"/>
-      <c r="J78" s="7" t="n"/>
-      <c r="K78" s="7" t="n"/>
-      <c r="L78" s="7" t="n"/>
+      <c r="J78" s="7" t="inlineStr"/>
+      <c r="K78" s="7" t="inlineStr"/>
+      <c r="L78" s="7" t="inlineStr"/>
       <c r="M78" s="7">
         <f>SUM(C78:L78)</f>
         <v/>
@@ -19147,15 +19147,15 @@
       <c r="C79" s="7" t="n">
         <v>120.88</v>
       </c>
-      <c r="D79" s="7" t="n"/>
-      <c r="E79" s="7" t="n"/>
-      <c r="F79" s="7" t="n"/>
-      <c r="G79" s="7" t="n"/>
-      <c r="H79" s="7" t="n"/>
-      <c r="I79" s="7" t="n"/>
-      <c r="J79" s="7" t="n"/>
-      <c r="K79" s="7" t="n"/>
-      <c r="L79" s="7" t="n"/>
+      <c r="D79" s="7" t="inlineStr"/>
+      <c r="E79" s="7" t="inlineStr"/>
+      <c r="F79" s="7" t="inlineStr"/>
+      <c r="G79" s="7" t="inlineStr"/>
+      <c r="H79" s="7" t="inlineStr"/>
+      <c r="I79" s="7" t="inlineStr"/>
+      <c r="J79" s="7" t="inlineStr"/>
+      <c r="K79" s="7" t="inlineStr"/>
+      <c r="L79" s="7" t="inlineStr"/>
       <c r="M79" s="7">
         <f>SUM(C79:L79)</f>
         <v/>
@@ -19172,18 +19172,18 @@
           <t>IGA</t>
         </is>
       </c>
-      <c r="C80" s="7" t="n">
+      <c r="C80" s="7" t="inlineStr"/>
+      <c r="D80" s="7" t="inlineStr"/>
+      <c r="E80" s="7" t="inlineStr"/>
+      <c r="F80" s="7" t="inlineStr"/>
+      <c r="G80" s="7" t="inlineStr"/>
+      <c r="H80" s="7" t="inlineStr"/>
+      <c r="I80" s="7" t="n">
         <v>120.29</v>
       </c>
-      <c r="D80" s="7" t="n"/>
-      <c r="E80" s="7" t="n"/>
-      <c r="F80" s="7" t="n"/>
-      <c r="G80" s="7" t="n"/>
-      <c r="H80" s="7" t="n"/>
-      <c r="I80" s="7" t="n"/>
-      <c r="J80" s="7" t="n"/>
-      <c r="K80" s="7" t="n"/>
-      <c r="L80" s="7" t="n"/>
+      <c r="J80" s="7" t="inlineStr"/>
+      <c r="K80" s="7" t="inlineStr"/>
+      <c r="L80" s="7" t="inlineStr"/>
       <c r="M80" s="7">
         <f>SUM(C80:L80)</f>
         <v/>
@@ -19200,18 +19200,18 @@
           <t>KFC</t>
         </is>
       </c>
-      <c r="C81" s="7" t="n">
+      <c r="C81" s="7" t="inlineStr"/>
+      <c r="D81" s="7" t="n">
         <v>36.95</v>
       </c>
-      <c r="D81" s="7" t="n"/>
-      <c r="E81" s="7" t="n"/>
-      <c r="F81" s="7" t="n"/>
-      <c r="G81" s="7" t="n"/>
-      <c r="H81" s="7" t="n"/>
-      <c r="I81" s="7" t="n"/>
-      <c r="J81" s="7" t="n"/>
-      <c r="K81" s="7" t="n"/>
-      <c r="L81" s="7" t="n"/>
+      <c r="E81" s="7" t="inlineStr"/>
+      <c r="F81" s="7" t="inlineStr"/>
+      <c r="G81" s="7" t="inlineStr"/>
+      <c r="H81" s="7" t="inlineStr"/>
+      <c r="I81" s="7" t="inlineStr"/>
+      <c r="J81" s="7" t="inlineStr"/>
+      <c r="K81" s="7" t="inlineStr"/>
+      <c r="L81" s="7" t="inlineStr"/>
       <c r="M81" s="7">
         <f>SUM(C81:L81)</f>
         <v/>
@@ -19235,15 +19235,15 @@
       <c r="C82" s="7" t="n">
         <v>6.8</v>
       </c>
-      <c r="D82" s="7" t="n"/>
-      <c r="E82" s="7" t="n"/>
-      <c r="F82" s="7" t="n"/>
-      <c r="G82" s="7" t="n"/>
-      <c r="H82" s="7" t="n"/>
-      <c r="I82" s="7" t="n"/>
-      <c r="J82" s="7" t="n"/>
-      <c r="K82" s="7" t="n"/>
-      <c r="L82" s="7" t="n"/>
+      <c r="D82" s="7" t="inlineStr"/>
+      <c r="E82" s="7" t="inlineStr"/>
+      <c r="F82" s="7" t="inlineStr"/>
+      <c r="G82" s="7" t="inlineStr"/>
+      <c r="H82" s="7" t="inlineStr"/>
+      <c r="I82" s="7" t="inlineStr"/>
+      <c r="J82" s="7" t="inlineStr"/>
+      <c r="K82" s="7" t="inlineStr"/>
+      <c r="L82" s="7" t="inlineStr"/>
       <c r="M82" s="7">
         <f>SUM(C82:L82)</f>
         <v/>
@@ -19267,15 +19267,15 @@
       <c r="C83" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="D83" s="7" t="n"/>
-      <c r="E83" s="7" t="n"/>
-      <c r="F83" s="7" t="n"/>
-      <c r="G83" s="7" t="n"/>
-      <c r="H83" s="7" t="n"/>
-      <c r="I83" s="7" t="n"/>
-      <c r="J83" s="7" t="n"/>
-      <c r="K83" s="7" t="n"/>
-      <c r="L83" s="7" t="n"/>
+      <c r="D83" s="7" t="inlineStr"/>
+      <c r="E83" s="7" t="inlineStr"/>
+      <c r="F83" s="7" t="inlineStr"/>
+      <c r="G83" s="7" t="inlineStr"/>
+      <c r="H83" s="7" t="inlineStr"/>
+      <c r="I83" s="7" t="inlineStr"/>
+      <c r="J83" s="7" t="inlineStr"/>
+      <c r="K83" s="7" t="inlineStr"/>
+      <c r="L83" s="7" t="inlineStr"/>
       <c r="M83" s="7">
         <f>SUM(C83:L83)</f>
         <v/>
@@ -19296,18 +19296,18 @@
           <t>7-Eleven</t>
         </is>
       </c>
-      <c r="C84" s="7" t="n">
+      <c r="C84" s="7" t="inlineStr"/>
+      <c r="D84" s="7" t="inlineStr"/>
+      <c r="E84" s="7" t="inlineStr"/>
+      <c r="F84" s="7" t="inlineStr"/>
+      <c r="G84" s="7" t="n">
         <v>87.95</v>
       </c>
-      <c r="D84" s="7" t="n"/>
-      <c r="E84" s="7" t="n"/>
-      <c r="F84" s="7" t="n"/>
-      <c r="G84" s="7" t="n"/>
-      <c r="H84" s="7" t="n"/>
-      <c r="I84" s="7" t="n"/>
-      <c r="J84" s="7" t="n"/>
-      <c r="K84" s="7" t="n"/>
-      <c r="L84" s="7" t="n"/>
+      <c r="H84" s="7" t="inlineStr"/>
+      <c r="I84" s="7" t="inlineStr"/>
+      <c r="J84" s="7" t="inlineStr"/>
+      <c r="K84" s="7" t="inlineStr"/>
+      <c r="L84" s="7" t="inlineStr"/>
       <c r="M84" s="7">
         <f>SUM(C84:L84)</f>
         <v/>
@@ -19328,18 +19328,18 @@
           <t>Chemist Warehouse</t>
         </is>
       </c>
-      <c r="C85" s="7" t="n">
+      <c r="C85" s="7" t="inlineStr"/>
+      <c r="D85" s="7" t="inlineStr"/>
+      <c r="E85" s="7" t="inlineStr"/>
+      <c r="F85" s="7" t="inlineStr"/>
+      <c r="G85" s="7" t="inlineStr"/>
+      <c r="H85" s="7" t="inlineStr"/>
+      <c r="I85" s="7" t="n">
         <v>27.48</v>
       </c>
-      <c r="D85" s="7" t="n"/>
-      <c r="E85" s="7" t="n"/>
-      <c r="F85" s="7" t="n"/>
-      <c r="G85" s="7" t="n"/>
-      <c r="H85" s="7" t="n"/>
-      <c r="I85" s="7" t="n"/>
-      <c r="J85" s="7" t="n"/>
-      <c r="K85" s="7" t="n"/>
-      <c r="L85" s="7" t="n"/>
+      <c r="J85" s="7" t="inlineStr"/>
+      <c r="K85" s="7" t="inlineStr"/>
+      <c r="L85" s="7" t="inlineStr"/>
       <c r="M85" s="7">
         <f>SUM(C85:L85)</f>
         <v/>
@@ -19360,18 +19360,18 @@
           <t>Xero</t>
         </is>
       </c>
-      <c r="C86" s="7" t="n">
+      <c r="C86" s="7" t="inlineStr"/>
+      <c r="D86" s="7" t="inlineStr"/>
+      <c r="E86" s="7" t="inlineStr"/>
+      <c r="F86" s="7" t="inlineStr"/>
+      <c r="G86" s="7" t="inlineStr"/>
+      <c r="H86" s="7" t="n">
         <v>59</v>
       </c>
-      <c r="D86" s="7" t="n"/>
-      <c r="E86" s="7" t="n"/>
-      <c r="F86" s="7" t="n"/>
-      <c r="G86" s="7" t="n"/>
-      <c r="H86" s="7" t="n"/>
-      <c r="I86" s="7" t="n"/>
-      <c r="J86" s="7" t="n"/>
-      <c r="K86" s="7" t="n"/>
-      <c r="L86" s="7" t="n"/>
+      <c r="I86" s="7" t="inlineStr"/>
+      <c r="J86" s="7" t="inlineStr"/>
+      <c r="K86" s="7" t="inlineStr"/>
+      <c r="L86" s="7" t="inlineStr"/>
       <c r="M86" s="7">
         <f>SUM(C86:L86)</f>
         <v/>
@@ -19395,15 +19395,15 @@
       <c r="C87" s="7" t="n">
         <v>147.36</v>
       </c>
-      <c r="D87" s="7" t="n"/>
-      <c r="E87" s="7" t="n"/>
-      <c r="F87" s="7" t="n"/>
-      <c r="G87" s="7" t="n"/>
-      <c r="H87" s="7" t="n"/>
-      <c r="I87" s="7" t="n"/>
-      <c r="J87" s="7" t="n"/>
-      <c r="K87" s="7" t="n"/>
-      <c r="L87" s="7" t="n"/>
+      <c r="D87" s="7" t="inlineStr"/>
+      <c r="E87" s="7" t="inlineStr"/>
+      <c r="F87" s="7" t="inlineStr"/>
+      <c r="G87" s="7" t="inlineStr"/>
+      <c r="H87" s="7" t="inlineStr"/>
+      <c r="I87" s="7" t="inlineStr"/>
+      <c r="J87" s="7" t="inlineStr"/>
+      <c r="K87" s="7" t="inlineStr"/>
+      <c r="L87" s="7" t="inlineStr"/>
       <c r="M87" s="7">
         <f>SUM(C87:L87)</f>
         <v/>
@@ -19424,18 +19424,18 @@
           <t>Belong</t>
         </is>
       </c>
-      <c r="C88" s="7" t="n">
+      <c r="C88" s="7" t="inlineStr"/>
+      <c r="D88" s="7" t="inlineStr"/>
+      <c r="E88" s="7" t="inlineStr"/>
+      <c r="F88" s="7" t="inlineStr"/>
+      <c r="G88" s="7" t="inlineStr"/>
+      <c r="H88" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="D88" s="7" t="n"/>
-      <c r="E88" s="7" t="n"/>
-      <c r="F88" s="7" t="n"/>
-      <c r="G88" s="7" t="n"/>
-      <c r="H88" s="7" t="n"/>
-      <c r="I88" s="7" t="n"/>
-      <c r="J88" s="7" t="n"/>
-      <c r="K88" s="7" t="n"/>
-      <c r="L88" s="7" t="n"/>
+      <c r="I88" s="7" t="inlineStr"/>
+      <c r="J88" s="7" t="inlineStr"/>
+      <c r="K88" s="7" t="inlineStr"/>
+      <c r="L88" s="7" t="inlineStr"/>
       <c r="M88" s="7">
         <f>SUM(C88:L88)</f>
         <v/>
@@ -19452,18 +19452,18 @@
           <t>7-Eleven</t>
         </is>
       </c>
-      <c r="C89" s="7" t="n">
+      <c r="C89" s="7" t="inlineStr"/>
+      <c r="D89" s="7" t="inlineStr"/>
+      <c r="E89" s="7" t="inlineStr"/>
+      <c r="F89" s="7" t="inlineStr"/>
+      <c r="G89" s="7" t="n">
         <v>90.25</v>
       </c>
-      <c r="D89" s="7" t="n"/>
-      <c r="E89" s="7" t="n"/>
-      <c r="F89" s="7" t="n"/>
-      <c r="G89" s="7" t="n"/>
-      <c r="H89" s="7" t="n"/>
-      <c r="I89" s="7" t="n"/>
-      <c r="J89" s="7" t="n"/>
-      <c r="K89" s="7" t="n"/>
-      <c r="L89" s="7" t="n"/>
+      <c r="H89" s="7" t="inlineStr"/>
+      <c r="I89" s="7" t="inlineStr"/>
+      <c r="J89" s="7" t="inlineStr"/>
+      <c r="K89" s="7" t="inlineStr"/>
+      <c r="L89" s="7" t="inlineStr"/>
       <c r="M89" s="7">
         <f>SUM(C89:L89)</f>
         <v/>
@@ -19487,15 +19487,15 @@
       <c r="C90" s="7" t="n">
         <v>2300</v>
       </c>
-      <c r="D90" s="7" t="n"/>
-      <c r="E90" s="7" t="n"/>
-      <c r="F90" s="7" t="n"/>
-      <c r="G90" s="7" t="n"/>
-      <c r="H90" s="7" t="n"/>
-      <c r="I90" s="7" t="n"/>
-      <c r="J90" s="7" t="n"/>
-      <c r="K90" s="7" t="n"/>
-      <c r="L90" s="7" t="n"/>
+      <c r="D90" s="7" t="inlineStr"/>
+      <c r="E90" s="7" t="inlineStr"/>
+      <c r="F90" s="7" t="inlineStr"/>
+      <c r="G90" s="7" t="inlineStr"/>
+      <c r="H90" s="7" t="inlineStr"/>
+      <c r="I90" s="7" t="inlineStr"/>
+      <c r="J90" s="7" t="inlineStr"/>
+      <c r="K90" s="7" t="inlineStr"/>
+      <c r="L90" s="7" t="inlineStr"/>
       <c r="M90" s="7">
         <f>SUM(C90:L90)</f>
         <v/>
@@ -19515,15 +19515,15 @@
       <c r="C91" s="7" t="n">
         <v>172.19</v>
       </c>
-      <c r="D91" s="7" t="n"/>
-      <c r="E91" s="7" t="n"/>
-      <c r="F91" s="7" t="n"/>
-      <c r="G91" s="7" t="n"/>
-      <c r="H91" s="7" t="n"/>
-      <c r="I91" s="7" t="n"/>
-      <c r="J91" s="7" t="n"/>
-      <c r="K91" s="7" t="n"/>
-      <c r="L91" s="7" t="n"/>
+      <c r="D91" s="7" t="inlineStr"/>
+      <c r="E91" s="7" t="inlineStr"/>
+      <c r="F91" s="7" t="inlineStr"/>
+      <c r="G91" s="7" t="inlineStr"/>
+      <c r="H91" s="7" t="inlineStr"/>
+      <c r="I91" s="7" t="inlineStr"/>
+      <c r="J91" s="7" t="inlineStr"/>
+      <c r="K91" s="7" t="inlineStr"/>
+      <c r="L91" s="7" t="inlineStr"/>
       <c r="M91" s="7">
         <f>SUM(C91:L91)</f>
         <v/>
@@ -19540,18 +19540,18 @@
           <t>EG Group</t>
         </is>
       </c>
-      <c r="C92" s="7" t="n">
+      <c r="C92" s="7" t="inlineStr"/>
+      <c r="D92" s="7" t="inlineStr"/>
+      <c r="E92" s="7" t="inlineStr"/>
+      <c r="F92" s="7" t="inlineStr"/>
+      <c r="G92" s="7" t="n">
         <v>54.25</v>
       </c>
-      <c r="D92" s="7" t="n"/>
-      <c r="E92" s="7" t="n"/>
-      <c r="F92" s="7" t="n"/>
-      <c r="G92" s="7" t="n"/>
-      <c r="H92" s="7" t="n"/>
-      <c r="I92" s="7" t="n"/>
-      <c r="J92" s="7" t="n"/>
-      <c r="K92" s="7" t="n"/>
-      <c r="L92" s="7" t="n"/>
+      <c r="H92" s="7" t="inlineStr"/>
+      <c r="I92" s="7" t="inlineStr"/>
+      <c r="J92" s="7" t="inlineStr"/>
+      <c r="K92" s="7" t="inlineStr"/>
+      <c r="L92" s="7" t="inlineStr"/>
       <c r="M92" s="7">
         <f>SUM(C92:L92)</f>
         <v/>
@@ -19575,15 +19575,15 @@
       <c r="C93" s="7" t="n">
         <v>1937.5</v>
       </c>
-      <c r="D93" s="7" t="n"/>
-      <c r="E93" s="7" t="n"/>
-      <c r="F93" s="7" t="n"/>
-      <c r="G93" s="7" t="n"/>
-      <c r="H93" s="7" t="n"/>
-      <c r="I93" s="7" t="n"/>
-      <c r="J93" s="7" t="n"/>
-      <c r="K93" s="7" t="n"/>
-      <c r="L93" s="7" t="n"/>
+      <c r="D93" s="7" t="inlineStr"/>
+      <c r="E93" s="7" t="inlineStr"/>
+      <c r="F93" s="7" t="inlineStr"/>
+      <c r="G93" s="7" t="inlineStr"/>
+      <c r="H93" s="7" t="inlineStr"/>
+      <c r="I93" s="7" t="inlineStr"/>
+      <c r="J93" s="7" t="inlineStr"/>
+      <c r="K93" s="7" t="inlineStr"/>
+      <c r="L93" s="7" t="inlineStr"/>
       <c r="M93" s="7">
         <f>SUM(C93:L93)</f>
         <v/>
@@ -19600,18 +19600,18 @@
           <t>EG Group</t>
         </is>
       </c>
-      <c r="C94" s="7" t="n">
+      <c r="C94" s="7" t="inlineStr"/>
+      <c r="D94" s="7" t="inlineStr"/>
+      <c r="E94" s="7" t="inlineStr"/>
+      <c r="F94" s="7" t="inlineStr"/>
+      <c r="G94" s="7" t="n">
         <v>68.20999999999999</v>
       </c>
-      <c r="D94" s="7" t="n"/>
-      <c r="E94" s="7" t="n"/>
-      <c r="F94" s="7" t="n"/>
-      <c r="G94" s="7" t="n"/>
-      <c r="H94" s="7" t="n"/>
-      <c r="I94" s="7" t="n"/>
-      <c r="J94" s="7" t="n"/>
-      <c r="K94" s="7" t="n"/>
-      <c r="L94" s="7" t="n"/>
+      <c r="H94" s="7" t="inlineStr"/>
+      <c r="I94" s="7" t="inlineStr"/>
+      <c r="J94" s="7" t="inlineStr"/>
+      <c r="K94" s="7" t="inlineStr"/>
+      <c r="L94" s="7" t="inlineStr"/>
       <c r="M94" s="7">
         <f>SUM(C94:L94)</f>
         <v/>
@@ -19632,18 +19632,18 @@
           <t>Woolworths</t>
         </is>
       </c>
-      <c r="C95" s="7" t="n">
+      <c r="C95" s="7" t="inlineStr"/>
+      <c r="D95" s="7" t="inlineStr"/>
+      <c r="E95" s="7" t="inlineStr"/>
+      <c r="F95" s="7" t="inlineStr"/>
+      <c r="G95" s="7" t="inlineStr"/>
+      <c r="H95" s="7" t="inlineStr"/>
+      <c r="I95" s="7" t="n">
         <v>120.6</v>
       </c>
-      <c r="D95" s="7" t="n"/>
-      <c r="E95" s="7" t="n"/>
-      <c r="F95" s="7" t="n"/>
-      <c r="G95" s="7" t="n"/>
-      <c r="H95" s="7" t="n"/>
-      <c r="I95" s="7" t="n"/>
-      <c r="J95" s="7" t="n"/>
-      <c r="K95" s="7" t="n"/>
-      <c r="L95" s="7" t="n"/>
+      <c r="J95" s="7" t="inlineStr"/>
+      <c r="K95" s="7" t="inlineStr"/>
+      <c r="L95" s="7" t="inlineStr"/>
       <c r="M95" s="7">
         <f>SUM(C95:L95)</f>
         <v/>
@@ -19664,18 +19664,18 @@
           <t>IGA</t>
         </is>
       </c>
-      <c r="C96" s="7" t="n">
+      <c r="C96" s="7" t="inlineStr"/>
+      <c r="D96" s="7" t="inlineStr"/>
+      <c r="E96" s="7" t="inlineStr"/>
+      <c r="F96" s="7" t="inlineStr"/>
+      <c r="G96" s="7" t="inlineStr"/>
+      <c r="H96" s="7" t="inlineStr"/>
+      <c r="I96" s="7" t="n">
         <v>44.48</v>
       </c>
-      <c r="D96" s="7" t="n"/>
-      <c r="E96" s="7" t="n"/>
-      <c r="F96" s="7" t="n"/>
-      <c r="G96" s="7" t="n"/>
-      <c r="H96" s="7" t="n"/>
-      <c r="I96" s="7" t="n"/>
-      <c r="J96" s="7" t="n"/>
-      <c r="K96" s="7" t="n"/>
-      <c r="L96" s="7" t="n"/>
+      <c r="J96" s="7" t="inlineStr"/>
+      <c r="K96" s="7" t="inlineStr"/>
+      <c r="L96" s="7" t="inlineStr"/>
       <c r="M96" s="7">
         <f>SUM(C96:L96)</f>
         <v/>
@@ -19696,18 +19696,18 @@
           <t>Coles Express</t>
         </is>
       </c>
-      <c r="C97" s="7" t="n">
+      <c r="C97" s="7" t="inlineStr"/>
+      <c r="D97" s="7" t="inlineStr"/>
+      <c r="E97" s="7" t="inlineStr"/>
+      <c r="F97" s="7" t="inlineStr"/>
+      <c r="G97" s="7" t="n">
         <v>88.20999999999999</v>
       </c>
-      <c r="D97" s="7" t="n"/>
-      <c r="E97" s="7" t="n"/>
-      <c r="F97" s="7" t="n"/>
-      <c r="G97" s="7" t="n"/>
-      <c r="H97" s="7" t="n"/>
-      <c r="I97" s="7" t="n"/>
-      <c r="J97" s="7" t="n"/>
-      <c r="K97" s="7" t="n"/>
-      <c r="L97" s="7" t="n"/>
+      <c r="H97" s="7" t="inlineStr"/>
+      <c r="I97" s="7" t="inlineStr"/>
+      <c r="J97" s="7" t="inlineStr"/>
+      <c r="K97" s="7" t="inlineStr"/>
+      <c r="L97" s="7" t="inlineStr"/>
       <c r="M97" s="7">
         <f>SUM(C97:L97)</f>
         <v/>
@@ -19728,18 +19728,18 @@
           <t>IGA</t>
         </is>
       </c>
-      <c r="C98" s="7" t="n">
+      <c r="C98" s="7" t="inlineStr"/>
+      <c r="D98" s="7" t="inlineStr"/>
+      <c r="E98" s="7" t="inlineStr"/>
+      <c r="F98" s="7" t="inlineStr"/>
+      <c r="G98" s="7" t="inlineStr"/>
+      <c r="H98" s="7" t="inlineStr"/>
+      <c r="I98" s="7" t="n">
         <v>117.3</v>
       </c>
-      <c r="D98" s="7" t="n"/>
-      <c r="E98" s="7" t="n"/>
-      <c r="F98" s="7" t="n"/>
-      <c r="G98" s="7" t="n"/>
-      <c r="H98" s="7" t="n"/>
-      <c r="I98" s="7" t="n"/>
-      <c r="J98" s="7" t="n"/>
-      <c r="K98" s="7" t="n"/>
-      <c r="L98" s="7" t="n"/>
+      <c r="J98" s="7" t="inlineStr"/>
+      <c r="K98" s="7" t="inlineStr"/>
+      <c r="L98" s="7" t="inlineStr"/>
       <c r="M98" s="7">
         <f>SUM(C98:L98)</f>
         <v/>
@@ -19756,18 +19756,18 @@
           <t>Healthy Pets</t>
         </is>
       </c>
-      <c r="C99" s="7" t="n">
+      <c r="C99" s="7" t="inlineStr"/>
+      <c r="D99" s="7" t="inlineStr"/>
+      <c r="E99" s="7" t="inlineStr"/>
+      <c r="F99" s="7" t="inlineStr"/>
+      <c r="G99" s="7" t="inlineStr"/>
+      <c r="H99" s="7" t="inlineStr"/>
+      <c r="I99" s="7" t="inlineStr"/>
+      <c r="J99" s="7" t="inlineStr"/>
+      <c r="K99" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="D99" s="7" t="n"/>
-      <c r="E99" s="7" t="n"/>
-      <c r="F99" s="7" t="n"/>
-      <c r="G99" s="7" t="n"/>
-      <c r="H99" s="7" t="n"/>
-      <c r="I99" s="7" t="n"/>
-      <c r="J99" s="7" t="n"/>
-      <c r="K99" s="7" t="n"/>
-      <c r="L99" s="7" t="n"/>
+      <c r="L99" s="7" t="inlineStr"/>
       <c r="M99" s="7">
         <f>SUM(C99:L99)</f>
         <v/>
@@ -19784,18 +19784,18 @@
           <t>McDonalds</t>
         </is>
       </c>
-      <c r="C100" s="7" t="n">
+      <c r="C100" s="7" t="inlineStr"/>
+      <c r="D100" s="7" t="n">
         <v>27.5</v>
       </c>
-      <c r="D100" s="7" t="n"/>
-      <c r="E100" s="7" t="n"/>
-      <c r="F100" s="7" t="n"/>
-      <c r="G100" s="7" t="n"/>
-      <c r="H100" s="7" t="n"/>
-      <c r="I100" s="7" t="n"/>
-      <c r="J100" s="7" t="n"/>
-      <c r="K100" s="7" t="n"/>
-      <c r="L100" s="7" t="n"/>
+      <c r="E100" s="7" t="inlineStr"/>
+      <c r="F100" s="7" t="inlineStr"/>
+      <c r="G100" s="7" t="inlineStr"/>
+      <c r="H100" s="7" t="inlineStr"/>
+      <c r="I100" s="7" t="inlineStr"/>
+      <c r="J100" s="7" t="inlineStr"/>
+      <c r="K100" s="7" t="inlineStr"/>
+      <c r="L100" s="7" t="inlineStr"/>
       <c r="M100" s="7">
         <f>SUM(C100:L100)</f>
         <v/>
@@ -19819,15 +19819,15 @@
       <c r="C101" s="7" t="n">
         <v>8.5</v>
       </c>
-      <c r="D101" s="7" t="n"/>
-      <c r="E101" s="7" t="n"/>
-      <c r="F101" s="7" t="n"/>
-      <c r="G101" s="7" t="n"/>
-      <c r="H101" s="7" t="n"/>
-      <c r="I101" s="7" t="n"/>
-      <c r="J101" s="7" t="n"/>
-      <c r="K101" s="7" t="n"/>
-      <c r="L101" s="7" t="n"/>
+      <c r="D101" s="7" t="inlineStr"/>
+      <c r="E101" s="7" t="inlineStr"/>
+      <c r="F101" s="7" t="inlineStr"/>
+      <c r="G101" s="7" t="inlineStr"/>
+      <c r="H101" s="7" t="inlineStr"/>
+      <c r="I101" s="7" t="inlineStr"/>
+      <c r="J101" s="7" t="inlineStr"/>
+      <c r="K101" s="7" t="inlineStr"/>
+      <c r="L101" s="7" t="inlineStr"/>
       <c r="M101" s="7">
         <f>SUM(C101:L101)</f>
         <v/>
@@ -19851,15 +19851,15 @@
       <c r="C102" s="7" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D102" s="7" t="n"/>
-      <c r="E102" s="7" t="n"/>
-      <c r="F102" s="7" t="n"/>
-      <c r="G102" s="7" t="n"/>
-      <c r="H102" s="7" t="n"/>
-      <c r="I102" s="7" t="n"/>
-      <c r="J102" s="7" t="n"/>
-      <c r="K102" s="7" t="n"/>
-      <c r="L102" s="7" t="n"/>
+      <c r="D102" s="7" t="inlineStr"/>
+      <c r="E102" s="7" t="inlineStr"/>
+      <c r="F102" s="7" t="inlineStr"/>
+      <c r="G102" s="7" t="inlineStr"/>
+      <c r="H102" s="7" t="inlineStr"/>
+      <c r="I102" s="7" t="inlineStr"/>
+      <c r="J102" s="7" t="inlineStr"/>
+      <c r="K102" s="7" t="inlineStr"/>
+      <c r="L102" s="7" t="inlineStr"/>
       <c r="M102" s="7">
         <f>SUM(C102:L102)</f>
         <v/>
@@ -19876,18 +19876,18 @@
           <t>7-Eleven</t>
         </is>
       </c>
-      <c r="C103" s="7" t="n">
+      <c r="C103" s="7" t="inlineStr"/>
+      <c r="D103" s="7" t="inlineStr"/>
+      <c r="E103" s="7" t="inlineStr"/>
+      <c r="F103" s="7" t="inlineStr"/>
+      <c r="G103" s="7" t="n">
         <v>70.51000000000001</v>
       </c>
-      <c r="D103" s="7" t="n"/>
-      <c r="E103" s="7" t="n"/>
-      <c r="F103" s="7" t="n"/>
-      <c r="G103" s="7" t="n"/>
-      <c r="H103" s="7" t="n"/>
-      <c r="I103" s="7" t="n"/>
-      <c r="J103" s="7" t="n"/>
-      <c r="K103" s="7" t="n"/>
-      <c r="L103" s="7" t="n"/>
+      <c r="H103" s="7" t="inlineStr"/>
+      <c r="I103" s="7" t="inlineStr"/>
+      <c r="J103" s="7" t="inlineStr"/>
+      <c r="K103" s="7" t="inlineStr"/>
+      <c r="L103" s="7" t="inlineStr"/>
       <c r="M103" s="7">
         <f>SUM(C103:L103)</f>
         <v/>
@@ -19908,18 +19908,18 @@
           <t>Hungry Jacks</t>
         </is>
       </c>
-      <c r="C104" s="7" t="n">
+      <c r="C104" s="7" t="inlineStr"/>
+      <c r="D104" s="7" t="n">
         <v>71.2</v>
       </c>
-      <c r="D104" s="7" t="n"/>
-      <c r="E104" s="7" t="n"/>
-      <c r="F104" s="7" t="n"/>
-      <c r="G104" s="7" t="n"/>
-      <c r="H104" s="7" t="n"/>
-      <c r="I104" s="7" t="n"/>
-      <c r="J104" s="7" t="n"/>
-      <c r="K104" s="7" t="n"/>
-      <c r="L104" s="7" t="n"/>
+      <c r="E104" s="7" t="inlineStr"/>
+      <c r="F104" s="7" t="inlineStr"/>
+      <c r="G104" s="7" t="inlineStr"/>
+      <c r="H104" s="7" t="inlineStr"/>
+      <c r="I104" s="7" t="inlineStr"/>
+      <c r="J104" s="7" t="inlineStr"/>
+      <c r="K104" s="7" t="inlineStr"/>
+      <c r="L104" s="7" t="inlineStr"/>
       <c r="M104" s="7">
         <f>SUM(C104:L104)</f>
         <v/>

--- a/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Mastercard Apr - Jun 2023.xlsx
+++ b/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Mastercard Apr - Jun 2023.xlsx
@@ -744,10 +744,7 @@
       <c r="F4" s="7" t="n">
         <v>4421.59</v>
       </c>
-      <c r="G4" s="7">
-        <f>SUM(C4:F4)</f>
-        <v/>
-      </c>
+      <c r="G4" s="7" t="inlineStr"/>
       <c r="H4" s="7">
         <f>SUM(G4:G4)</f>
         <v/>
@@ -770,10 +767,7 @@
       <c r="F5" s="7" t="n">
         <v>10700</v>
       </c>
-      <c r="G5" s="7">
-        <f>SUM(C5:F5)</f>
-        <v/>
-      </c>
+      <c r="G5" s="7" t="inlineStr"/>
       <c r="H5" s="7">
         <f>SUM(G4:G5)</f>
         <v/>
@@ -792,10 +786,7 @@
       <c r="F6" s="7" t="n">
         <v>5200</v>
       </c>
-      <c r="G6" s="7">
-        <f>SUM(C6:F6)</f>
-        <v/>
-      </c>
+      <c r="G6" s="7" t="inlineStr"/>
       <c r="H6" s="7">
         <f>SUM(G4:G6)</f>
         <v/>
@@ -818,10 +809,7 @@
       <c r="F7" s="7" t="n">
         <v>3700</v>
       </c>
-      <c r="G7" s="7">
-        <f>SUM(C7:F7)</f>
-        <v/>
-      </c>
+      <c r="G7" s="7" t="inlineStr"/>
       <c r="H7" s="7">
         <f>SUM(G4:G7)</f>
         <v/>
@@ -16884,10 +16872,7 @@
       <c r="J4" s="7" t="inlineStr"/>
       <c r="K4" s="7" t="inlineStr"/>
       <c r="L4" s="7" t="inlineStr"/>
-      <c r="M4" s="7">
-        <f>SUM(C4:L4)</f>
-        <v/>
-      </c>
+      <c r="M4" s="7" t="inlineStr"/>
       <c r="N4" s="7">
         <f>SUM(M4:M4)</f>
         <v/>
@@ -16912,10 +16897,7 @@
         <v>220</v>
       </c>
       <c r="L5" s="7" t="inlineStr"/>
-      <c r="M5" s="7">
-        <f>SUM(C5:L5)</f>
-        <v/>
-      </c>
+      <c r="M5" s="7" t="inlineStr"/>
       <c r="N5" s="7">
         <f>SUM(M4:M5)</f>
         <v/>
@@ -16944,10 +16926,7 @@
       <c r="J6" s="7" t="inlineStr"/>
       <c r="K6" s="7" t="inlineStr"/>
       <c r="L6" s="7" t="inlineStr"/>
-      <c r="M6" s="7">
-        <f>SUM(C6:L6)</f>
-        <v/>
-      </c>
+      <c r="M6" s="7" t="inlineStr"/>
       <c r="N6" s="7">
         <f>SUM(M4:M6)</f>
         <v/>
@@ -16972,10 +16951,7 @@
       <c r="J7" s="7" t="inlineStr"/>
       <c r="K7" s="7" t="inlineStr"/>
       <c r="L7" s="7" t="inlineStr"/>
-      <c r="M7" s="7">
-        <f>SUM(C7:L7)</f>
-        <v/>
-      </c>
+      <c r="M7" s="7" t="inlineStr"/>
       <c r="N7" s="7">
         <f>SUM(M4:M7)</f>
         <v/>
@@ -17004,10 +16980,7 @@
       </c>
       <c r="K8" s="7" t="inlineStr"/>
       <c r="L8" s="7" t="inlineStr"/>
-      <c r="M8" s="7">
-        <f>SUM(C8:L8)</f>
-        <v/>
-      </c>
+      <c r="M8" s="7" t="inlineStr"/>
       <c r="N8" s="7">
         <f>SUM(M4:M8)</f>
         <v/>
@@ -17036,9 +17009,8 @@
       <c r="J9" s="7" t="inlineStr"/>
       <c r="K9" s="7" t="inlineStr"/>
       <c r="L9" s="7" t="inlineStr"/>
-      <c r="M9" s="7">
-        <f>SUM(C9:L9)</f>
-        <v/>
+      <c r="M9" s="7" t="n">
+        <v>30.6</v>
       </c>
       <c r="N9" s="7">
         <f>SUM(M4:M9)</f>
@@ -17068,10 +17040,7 @@
       <c r="J10" s="7" t="inlineStr"/>
       <c r="K10" s="7" t="inlineStr"/>
       <c r="L10" s="7" t="inlineStr"/>
-      <c r="M10" s="7">
-        <f>SUM(C10:L10)</f>
-        <v/>
-      </c>
+      <c r="M10" s="7" t="inlineStr"/>
       <c r="N10" s="7">
         <f>SUM(M4:M10)</f>
         <v/>
@@ -17096,10 +17065,7 @@
         <v>220</v>
       </c>
       <c r="L11" s="7" t="inlineStr"/>
-      <c r="M11" s="7">
-        <f>SUM(C11:L11)</f>
-        <v/>
-      </c>
+      <c r="M11" s="7" t="inlineStr"/>
       <c r="N11" s="7">
         <f>SUM(M4:M11)</f>
         <v/>
@@ -17124,9 +17090,8 @@
       <c r="J12" s="7" t="inlineStr"/>
       <c r="K12" s="7" t="inlineStr"/>
       <c r="L12" s="7" t="inlineStr"/>
-      <c r="M12" s="7">
-        <f>SUM(C12:L12)</f>
-        <v/>
+      <c r="M12" s="7" t="n">
+        <v>81.29000000000001</v>
       </c>
       <c r="N12" s="7">
         <f>SUM(M4:M12)</f>
@@ -17156,9 +17121,8 @@
       <c r="J13" s="7" t="inlineStr"/>
       <c r="K13" s="7" t="inlineStr"/>
       <c r="L13" s="7" t="inlineStr"/>
-      <c r="M13" s="7">
-        <f>SUM(C13:L13)</f>
-        <v/>
+      <c r="M13" s="7" t="n">
+        <v>120.88</v>
       </c>
       <c r="N13" s="7">
         <f>SUM(M4:M13)</f>
@@ -17184,10 +17148,7 @@
       <c r="J14" s="7" t="inlineStr"/>
       <c r="K14" s="7" t="inlineStr"/>
       <c r="L14" s="7" t="inlineStr"/>
-      <c r="M14" s="7">
-        <f>SUM(C14:L14)</f>
-        <v/>
-      </c>
+      <c r="M14" s="7" t="inlineStr"/>
       <c r="N14" s="7">
         <f>SUM(M4:M14)</f>
         <v/>
@@ -17216,10 +17177,7 @@
       <c r="J15" s="7" t="inlineStr"/>
       <c r="K15" s="7" t="inlineStr"/>
       <c r="L15" s="7" t="inlineStr"/>
-      <c r="M15" s="7">
-        <f>SUM(C15:L15)</f>
-        <v/>
-      </c>
+      <c r="M15" s="7" t="inlineStr"/>
       <c r="N15" s="7">
         <f>SUM(M4:M15)</f>
         <v/>
@@ -17244,9 +17202,8 @@
       <c r="J16" s="7" t="inlineStr"/>
       <c r="K16" s="7" t="inlineStr"/>
       <c r="L16" s="7" t="inlineStr"/>
-      <c r="M16" s="7">
-        <f>SUM(C16:L16)</f>
-        <v/>
+      <c r="M16" s="7" t="n">
+        <v>15</v>
       </c>
       <c r="N16" s="7">
         <f>SUM(M4:M16)</f>
@@ -17276,10 +17233,7 @@
       <c r="J17" s="7" t="inlineStr"/>
       <c r="K17" s="7" t="inlineStr"/>
       <c r="L17" s="7" t="inlineStr"/>
-      <c r="M17" s="7">
-        <f>SUM(C17:L17)</f>
-        <v/>
-      </c>
+      <c r="M17" s="7" t="inlineStr"/>
       <c r="N17" s="7">
         <f>SUM(M4:M17)</f>
         <v/>
@@ -17304,9 +17258,8 @@
       <c r="J18" s="7" t="inlineStr"/>
       <c r="K18" s="7" t="inlineStr"/>
       <c r="L18" s="7" t="inlineStr"/>
-      <c r="M18" s="7">
-        <f>SUM(C18:L18)</f>
-        <v/>
+      <c r="M18" s="7" t="n">
+        <v>68.65000000000001</v>
       </c>
       <c r="N18" s="7">
         <f>SUM(M4:M18)</f>
@@ -17332,10 +17285,7 @@
       <c r="J19" s="7" t="inlineStr"/>
       <c r="K19" s="7" t="inlineStr"/>
       <c r="L19" s="7" t="inlineStr"/>
-      <c r="M19" s="7">
-        <f>SUM(C19:L19)</f>
-        <v/>
-      </c>
+      <c r="M19" s="7" t="inlineStr"/>
       <c r="N19" s="7">
         <f>SUM(M4:M19)</f>
         <v/>
@@ -17360,10 +17310,7 @@
       <c r="J20" s="7" t="inlineStr"/>
       <c r="K20" s="7" t="inlineStr"/>
       <c r="L20" s="7" t="inlineStr"/>
-      <c r="M20" s="7">
-        <f>SUM(C20:L20)</f>
-        <v/>
-      </c>
+      <c r="M20" s="7" t="inlineStr"/>
       <c r="N20" s="7">
         <f>SUM(M4:M20)</f>
         <v/>
@@ -17392,10 +17339,7 @@
       <c r="J21" s="7" t="inlineStr"/>
       <c r="K21" s="7" t="inlineStr"/>
       <c r="L21" s="7" t="inlineStr"/>
-      <c r="M21" s="7">
-        <f>SUM(C21:L21)</f>
-        <v/>
-      </c>
+      <c r="M21" s="7" t="inlineStr"/>
       <c r="N21" s="7">
         <f>SUM(M4:M21)</f>
         <v/>
@@ -17424,9 +17368,8 @@
       <c r="J22" s="7" t="inlineStr"/>
       <c r="K22" s="7" t="inlineStr"/>
       <c r="L22" s="7" t="inlineStr"/>
-      <c r="M22" s="7">
-        <f>SUM(C22:L22)</f>
-        <v/>
+      <c r="M22" s="7" t="n">
+        <v>1468.2</v>
       </c>
       <c r="N22" s="7">
         <f>SUM(M4:M22)</f>
@@ -17456,10 +17399,7 @@
         <v>220</v>
       </c>
       <c r="L23" s="7" t="inlineStr"/>
-      <c r="M23" s="7">
-        <f>SUM(C23:L23)</f>
-        <v/>
-      </c>
+      <c r="M23" s="7" t="inlineStr"/>
       <c r="N23" s="7">
         <f>SUM(M4:M23)</f>
         <v/>
@@ -17484,10 +17424,7 @@
       <c r="J24" s="7" t="inlineStr"/>
       <c r="K24" s="7" t="inlineStr"/>
       <c r="L24" s="7" t="inlineStr"/>
-      <c r="M24" s="7">
-        <f>SUM(C24:L24)</f>
-        <v/>
-      </c>
+      <c r="M24" s="7" t="inlineStr"/>
       <c r="N24" s="7">
         <f>SUM(M4:M24)</f>
         <v/>
@@ -17512,10 +17449,7 @@
       <c r="J25" s="7" t="inlineStr"/>
       <c r="K25" s="7" t="inlineStr"/>
       <c r="L25" s="7" t="inlineStr"/>
-      <c r="M25" s="7">
-        <f>SUM(C25:L25)</f>
-        <v/>
-      </c>
+      <c r="M25" s="7" t="inlineStr"/>
       <c r="N25" s="7">
         <f>SUM(M4:M25)</f>
         <v/>
@@ -17544,10 +17478,7 @@
       <c r="J26" s="7" t="inlineStr"/>
       <c r="K26" s="7" t="inlineStr"/>
       <c r="L26" s="7" t="inlineStr"/>
-      <c r="M26" s="7">
-        <f>SUM(C26:L26)</f>
-        <v/>
-      </c>
+      <c r="M26" s="7" t="inlineStr"/>
       <c r="N26" s="7">
         <f>SUM(M4:M26)</f>
         <v/>
@@ -17576,10 +17507,7 @@
       <c r="J27" s="7" t="inlineStr"/>
       <c r="K27" s="7" t="inlineStr"/>
       <c r="L27" s="7" t="inlineStr"/>
-      <c r="M27" s="7">
-        <f>SUM(C27:L27)</f>
-        <v/>
-      </c>
+      <c r="M27" s="7" t="inlineStr"/>
       <c r="N27" s="7">
         <f>SUM(M4:M27)</f>
         <v/>
@@ -17608,10 +17536,7 @@
       <c r="J28" s="7" t="inlineStr"/>
       <c r="K28" s="7" t="inlineStr"/>
       <c r="L28" s="7" t="inlineStr"/>
-      <c r="M28" s="7">
-        <f>SUM(C28:L28)</f>
-        <v/>
-      </c>
+      <c r="M28" s="7" t="inlineStr"/>
       <c r="N28" s="7">
         <f>SUM(M4:M28)</f>
         <v/>
@@ -17640,10 +17565,7 @@
       <c r="J29" s="7" t="inlineStr"/>
       <c r="K29" s="7" t="inlineStr"/>
       <c r="L29" s="7" t="inlineStr"/>
-      <c r="M29" s="7">
-        <f>SUM(C29:L29)</f>
-        <v/>
-      </c>
+      <c r="M29" s="7" t="inlineStr"/>
       <c r="N29" s="7">
         <f>SUM(M4:M29)</f>
         <v/>
@@ -17668,9 +17590,8 @@
       <c r="J30" s="7" t="inlineStr"/>
       <c r="K30" s="7" t="inlineStr"/>
       <c r="L30" s="7" t="inlineStr"/>
-      <c r="M30" s="7">
-        <f>SUM(C30:L30)</f>
-        <v/>
+      <c r="M30" s="7" t="n">
+        <v>3.3</v>
       </c>
       <c r="N30" s="7">
         <f>SUM(M4:M30)</f>
@@ -17700,10 +17621,7 @@
         <v>45</v>
       </c>
       <c r="L31" s="7" t="inlineStr"/>
-      <c r="M31" s="7">
-        <f>SUM(C31:L31)</f>
-        <v/>
-      </c>
+      <c r="M31" s="7" t="inlineStr"/>
       <c r="N31" s="7">
         <f>SUM(M4:M31)</f>
         <v/>
@@ -17728,10 +17646,7 @@
       <c r="J32" s="7" t="inlineStr"/>
       <c r="K32" s="7" t="inlineStr"/>
       <c r="L32" s="7" t="inlineStr"/>
-      <c r="M32" s="7">
-        <f>SUM(C32:L32)</f>
-        <v/>
-      </c>
+      <c r="M32" s="7" t="inlineStr"/>
       <c r="N32" s="7">
         <f>SUM(M4:M32)</f>
         <v/>
@@ -17760,10 +17675,7 @@
       <c r="J33" s="7" t="inlineStr"/>
       <c r="K33" s="7" t="inlineStr"/>
       <c r="L33" s="7" t="inlineStr"/>
-      <c r="M33" s="7">
-        <f>SUM(C33:L33)</f>
-        <v/>
-      </c>
+      <c r="M33" s="7" t="inlineStr"/>
       <c r="N33" s="7">
         <f>SUM(M4:M33)</f>
         <v/>
@@ -17788,9 +17700,8 @@
       <c r="J34" s="7" t="inlineStr"/>
       <c r="K34" s="7" t="inlineStr"/>
       <c r="L34" s="7" t="inlineStr"/>
-      <c r="M34" s="7">
-        <f>SUM(C34:L34)</f>
-        <v/>
+      <c r="M34" s="7" t="n">
+        <v>123.9</v>
       </c>
       <c r="N34" s="7">
         <f>SUM(M4:M34)</f>
@@ -17820,9 +17731,8 @@
       <c r="J35" s="7" t="inlineStr"/>
       <c r="K35" s="7" t="inlineStr"/>
       <c r="L35" s="7" t="inlineStr"/>
-      <c r="M35" s="7">
-        <f>SUM(C35:L35)</f>
-        <v/>
+      <c r="M35" s="7" t="n">
+        <v>9</v>
       </c>
       <c r="N35" s="7">
         <f>SUM(M4:M35)</f>
@@ -17848,9 +17758,8 @@
       <c r="J36" s="7" t="inlineStr"/>
       <c r="K36" s="7" t="inlineStr"/>
       <c r="L36" s="7" t="inlineStr"/>
-      <c r="M36" s="7">
-        <f>SUM(C36:L36)</f>
-        <v/>
+      <c r="M36" s="7" t="n">
+        <v>75.98999999999999</v>
       </c>
       <c r="N36" s="7">
         <f>SUM(M4:M36)</f>
@@ -17880,9 +17789,8 @@
       <c r="J37" s="7" t="inlineStr"/>
       <c r="K37" s="7" t="inlineStr"/>
       <c r="L37" s="7" t="inlineStr"/>
-      <c r="M37" s="7">
-        <f>SUM(C37:L37)</f>
-        <v/>
+      <c r="M37" s="7" t="n">
+        <v>75.01000000000001</v>
       </c>
       <c r="N37" s="7">
         <f>SUM(M4:M37)</f>
@@ -17912,10 +17820,7 @@
       <c r="J38" s="7" t="inlineStr"/>
       <c r="K38" s="7" t="inlineStr"/>
       <c r="L38" s="7" t="inlineStr"/>
-      <c r="M38" s="7">
-        <f>SUM(C38:L38)</f>
-        <v/>
-      </c>
+      <c r="M38" s="7" t="inlineStr"/>
       <c r="N38" s="7">
         <f>SUM(M4:M38)</f>
         <v/>
@@ -17940,10 +17845,7 @@
       <c r="J39" s="7" t="inlineStr"/>
       <c r="K39" s="7" t="inlineStr"/>
       <c r="L39" s="7" t="inlineStr"/>
-      <c r="M39" s="7">
-        <f>SUM(C39:L39)</f>
-        <v/>
-      </c>
+      <c r="M39" s="7" t="inlineStr"/>
       <c r="N39" s="7">
         <f>SUM(M4:M39)</f>
         <v/>
@@ -17968,10 +17870,7 @@
       <c r="J40" s="7" t="inlineStr"/>
       <c r="K40" s="7" t="inlineStr"/>
       <c r="L40" s="7" t="inlineStr"/>
-      <c r="M40" s="7">
-        <f>SUM(C40:L40)</f>
-        <v/>
-      </c>
+      <c r="M40" s="7" t="inlineStr"/>
       <c r="N40" s="7">
         <f>SUM(M4:M40)</f>
         <v/>
@@ -18000,10 +17899,7 @@
       <c r="J41" s="7" t="inlineStr"/>
       <c r="K41" s="7" t="inlineStr"/>
       <c r="L41" s="7" t="inlineStr"/>
-      <c r="M41" s="7">
-        <f>SUM(C41:L41)</f>
-        <v/>
-      </c>
+      <c r="M41" s="7" t="inlineStr"/>
       <c r="N41" s="7">
         <f>SUM(M4:M41)</f>
         <v/>
@@ -18032,9 +17928,8 @@
       <c r="J42" s="7" t="inlineStr"/>
       <c r="K42" s="7" t="inlineStr"/>
       <c r="L42" s="7" t="inlineStr"/>
-      <c r="M42" s="7">
-        <f>SUM(C42:L42)</f>
-        <v/>
+      <c r="M42" s="7" t="n">
+        <v>246.3</v>
       </c>
       <c r="N42" s="7">
         <f>SUM(M4:M42)</f>
@@ -18064,10 +17959,7 @@
       <c r="J43" s="7" t="inlineStr"/>
       <c r="K43" s="7" t="inlineStr"/>
       <c r="L43" s="7" t="inlineStr"/>
-      <c r="M43" s="7">
-        <f>SUM(C43:L43)</f>
-        <v/>
-      </c>
+      <c r="M43" s="7" t="inlineStr"/>
       <c r="N43" s="7">
         <f>SUM(M4:M43)</f>
         <v/>
@@ -18096,10 +17988,7 @@
       <c r="J44" s="7" t="inlineStr"/>
       <c r="K44" s="7" t="inlineStr"/>
       <c r="L44" s="7" t="inlineStr"/>
-      <c r="M44" s="7">
-        <f>SUM(C44:L44)</f>
-        <v/>
-      </c>
+      <c r="M44" s="7" t="inlineStr"/>
       <c r="N44" s="7">
         <f>SUM(M4:M44)</f>
         <v/>
@@ -18124,9 +18013,8 @@
       <c r="J45" s="7" t="inlineStr"/>
       <c r="K45" s="7" t="inlineStr"/>
       <c r="L45" s="7" t="inlineStr"/>
-      <c r="M45" s="7">
-        <f>SUM(C45:L45)</f>
-        <v/>
+      <c r="M45" s="7" t="n">
+        <v>46.98</v>
       </c>
       <c r="N45" s="7">
         <f>SUM(M4:M45)</f>
@@ -18156,10 +18044,7 @@
       <c r="J46" s="7" t="inlineStr"/>
       <c r="K46" s="7" t="inlineStr"/>
       <c r="L46" s="7" t="inlineStr"/>
-      <c r="M46" s="7">
-        <f>SUM(C46:L46)</f>
-        <v/>
-      </c>
+      <c r="M46" s="7" t="inlineStr"/>
       <c r="N46" s="7">
         <f>SUM(M4:M46)</f>
         <v/>
@@ -18188,9 +18073,8 @@
       <c r="J47" s="7" t="inlineStr"/>
       <c r="K47" s="7" t="inlineStr"/>
       <c r="L47" s="7" t="inlineStr"/>
-      <c r="M47" s="7">
-        <f>SUM(C47:L47)</f>
-        <v/>
+      <c r="M47" s="7" t="n">
+        <v>120.88</v>
       </c>
       <c r="N47" s="7">
         <f>SUM(M4:M47)</f>
@@ -18220,10 +18104,7 @@
       <c r="J48" s="7" t="inlineStr"/>
       <c r="K48" s="7" t="inlineStr"/>
       <c r="L48" s="7" t="inlineStr"/>
-      <c r="M48" s="7">
-        <f>SUM(C48:L48)</f>
-        <v/>
-      </c>
+      <c r="M48" s="7" t="inlineStr"/>
       <c r="N48" s="7">
         <f>SUM(M4:M48)</f>
         <v/>
@@ -18252,10 +18133,7 @@
       <c r="J49" s="7" t="inlineStr"/>
       <c r="K49" s="7" t="inlineStr"/>
       <c r="L49" s="7" t="inlineStr"/>
-      <c r="M49" s="7">
-        <f>SUM(C49:L49)</f>
-        <v/>
-      </c>
+      <c r="M49" s="7" t="inlineStr"/>
       <c r="N49" s="7">
         <f>SUM(M4:M49)</f>
         <v/>
@@ -18284,10 +18162,7 @@
       <c r="J50" s="7" t="inlineStr"/>
       <c r="K50" s="7" t="inlineStr"/>
       <c r="L50" s="7" t="inlineStr"/>
-      <c r="M50" s="7">
-        <f>SUM(C50:L50)</f>
-        <v/>
-      </c>
+      <c r="M50" s="7" t="inlineStr"/>
       <c r="N50" s="7">
         <f>SUM(M4:M50)</f>
         <v/>
@@ -18316,9 +18191,8 @@
       <c r="J51" s="7" t="inlineStr"/>
       <c r="K51" s="7" t="inlineStr"/>
       <c r="L51" s="7" t="inlineStr"/>
-      <c r="M51" s="7">
-        <f>SUM(C51:L51)</f>
-        <v/>
+      <c r="M51" s="7" t="n">
+        <v>22</v>
       </c>
       <c r="N51" s="7">
         <f>SUM(M4:M51)</f>
@@ -18344,10 +18218,7 @@
       <c r="J52" s="7" t="inlineStr"/>
       <c r="K52" s="7" t="inlineStr"/>
       <c r="L52" s="7" t="inlineStr"/>
-      <c r="M52" s="7">
-        <f>SUM(C52:L52)</f>
-        <v/>
-      </c>
+      <c r="M52" s="7" t="inlineStr"/>
       <c r="N52" s="7">
         <f>SUM(M4:M52)</f>
         <v/>
@@ -18376,10 +18247,7 @@
       <c r="J53" s="7" t="inlineStr"/>
       <c r="K53" s="7" t="inlineStr"/>
       <c r="L53" s="7" t="inlineStr"/>
-      <c r="M53" s="7">
-        <f>SUM(C53:L53)</f>
-        <v/>
-      </c>
+      <c r="M53" s="7" t="inlineStr"/>
       <c r="N53" s="7">
         <f>SUM(M4:M53)</f>
         <v/>
@@ -18404,10 +18272,7 @@
       <c r="J54" s="7" t="inlineStr"/>
       <c r="K54" s="7" t="inlineStr"/>
       <c r="L54" s="7" t="inlineStr"/>
-      <c r="M54" s="7">
-        <f>SUM(C54:L54)</f>
-        <v/>
-      </c>
+      <c r="M54" s="7" t="inlineStr"/>
       <c r="N54" s="7">
         <f>SUM(M4:M54)</f>
         <v/>
@@ -18436,10 +18301,7 @@
       <c r="J55" s="7" t="inlineStr"/>
       <c r="K55" s="7" t="inlineStr"/>
       <c r="L55" s="7" t="inlineStr"/>
-      <c r="M55" s="7">
-        <f>SUM(C55:L55)</f>
-        <v/>
-      </c>
+      <c r="M55" s="7" t="inlineStr"/>
       <c r="N55" s="7">
         <f>SUM(M4:M55)</f>
         <v/>
@@ -18468,9 +18330,8 @@
       <c r="J56" s="7" t="inlineStr"/>
       <c r="K56" s="7" t="inlineStr"/>
       <c r="L56" s="7" t="inlineStr"/>
-      <c r="M56" s="7">
-        <f>SUM(C56:L56)</f>
-        <v/>
+      <c r="M56" s="7" t="n">
+        <v>4.32</v>
       </c>
       <c r="N56" s="7">
         <f>SUM(M4:M56)</f>
@@ -18496,10 +18357,7 @@
       <c r="J57" s="7" t="inlineStr"/>
       <c r="K57" s="7" t="inlineStr"/>
       <c r="L57" s="7" t="inlineStr"/>
-      <c r="M57" s="7">
-        <f>SUM(C57:L57)</f>
-        <v/>
-      </c>
+      <c r="M57" s="7" t="inlineStr"/>
       <c r="N57" s="7">
         <f>SUM(M4:M57)</f>
         <v/>
@@ -18524,10 +18382,7 @@
       <c r="J58" s="7" t="inlineStr"/>
       <c r="K58" s="7" t="inlineStr"/>
       <c r="L58" s="7" t="inlineStr"/>
-      <c r="M58" s="7">
-        <f>SUM(C58:L58)</f>
-        <v/>
-      </c>
+      <c r="M58" s="7" t="inlineStr"/>
       <c r="N58" s="7">
         <f>SUM(M4:M58)</f>
         <v/>
@@ -18552,9 +18407,8 @@
       <c r="J59" s="7" t="inlineStr"/>
       <c r="K59" s="7" t="inlineStr"/>
       <c r="L59" s="7" t="inlineStr"/>
-      <c r="M59" s="7">
-        <f>SUM(C59:L59)</f>
-        <v/>
+      <c r="M59" s="7" t="n">
+        <v>229.5</v>
       </c>
       <c r="N59" s="7">
         <f>SUM(M4:M59)</f>
@@ -18584,10 +18438,7 @@
       <c r="J60" s="7" t="inlineStr"/>
       <c r="K60" s="7" t="inlineStr"/>
       <c r="L60" s="7" t="inlineStr"/>
-      <c r="M60" s="7">
-        <f>SUM(C60:L60)</f>
-        <v/>
-      </c>
+      <c r="M60" s="7" t="inlineStr"/>
       <c r="N60" s="7">
         <f>SUM(M4:M60)</f>
         <v/>
@@ -18612,10 +18463,7 @@
       <c r="J61" s="7" t="inlineStr"/>
       <c r="K61" s="7" t="inlineStr"/>
       <c r="L61" s="7" t="inlineStr"/>
-      <c r="M61" s="7">
-        <f>SUM(C61:L61)</f>
-        <v/>
-      </c>
+      <c r="M61" s="7" t="inlineStr"/>
       <c r="N61" s="7">
         <f>SUM(M4:M61)</f>
         <v/>
@@ -18644,10 +18492,7 @@
       <c r="J62" s="7" t="inlineStr"/>
       <c r="K62" s="7" t="inlineStr"/>
       <c r="L62" s="7" t="inlineStr"/>
-      <c r="M62" s="7">
-        <f>SUM(C62:L62)</f>
-        <v/>
-      </c>
+      <c r="M62" s="7" t="inlineStr"/>
       <c r="N62" s="7">
         <f>SUM(M4:M62)</f>
         <v/>
@@ -18676,10 +18521,7 @@
       <c r="J63" s="7" t="inlineStr"/>
       <c r="K63" s="7" t="inlineStr"/>
       <c r="L63" s="7" t="inlineStr"/>
-      <c r="M63" s="7">
-        <f>SUM(C63:L63)</f>
-        <v/>
-      </c>
+      <c r="M63" s="7" t="inlineStr"/>
       <c r="N63" s="7">
         <f>SUM(M4:M63)</f>
         <v/>
@@ -18704,10 +18546,7 @@
       <c r="J64" s="7" t="inlineStr"/>
       <c r="K64" s="7" t="inlineStr"/>
       <c r="L64" s="7" t="inlineStr"/>
-      <c r="M64" s="7">
-        <f>SUM(C64:L64)</f>
-        <v/>
-      </c>
+      <c r="M64" s="7" t="inlineStr"/>
       <c r="N64" s="7">
         <f>SUM(M4:M64)</f>
         <v/>
@@ -18732,10 +18571,7 @@
       <c r="J65" s="7" t="inlineStr"/>
       <c r="K65" s="7" t="inlineStr"/>
       <c r="L65" s="7" t="inlineStr"/>
-      <c r="M65" s="7">
-        <f>SUM(C65:L65)</f>
-        <v/>
-      </c>
+      <c r="M65" s="7" t="inlineStr"/>
       <c r="N65" s="7">
         <f>SUM(M4:M65)</f>
         <v/>
@@ -18764,10 +18600,7 @@
         <v>45</v>
       </c>
       <c r="L66" s="7" t="inlineStr"/>
-      <c r="M66" s="7">
-        <f>SUM(C66:L66)</f>
-        <v/>
-      </c>
+      <c r="M66" s="7" t="inlineStr"/>
       <c r="N66" s="7">
         <f>SUM(M4:M66)</f>
         <v/>
@@ -18792,9 +18625,8 @@
       <c r="J67" s="7" t="inlineStr"/>
       <c r="K67" s="7" t="inlineStr"/>
       <c r="L67" s="7" t="inlineStr"/>
-      <c r="M67" s="7">
-        <f>SUM(C67:L67)</f>
-        <v/>
+      <c r="M67" s="7" t="n">
+        <v>86.8</v>
       </c>
       <c r="N67" s="7">
         <f>SUM(M4:M67)</f>
@@ -18820,9 +18652,8 @@
       <c r="J68" s="7" t="inlineStr"/>
       <c r="K68" s="7" t="inlineStr"/>
       <c r="L68" s="7" t="inlineStr"/>
-      <c r="M68" s="7">
-        <f>SUM(C68:L68)</f>
-        <v/>
+      <c r="M68" s="7" t="n">
+        <v>43.37</v>
       </c>
       <c r="N68" s="7">
         <f>SUM(M4:M68)</f>
@@ -18852,9 +18683,8 @@
       <c r="J69" s="7" t="inlineStr"/>
       <c r="K69" s="7" t="inlineStr"/>
       <c r="L69" s="7" t="inlineStr"/>
-      <c r="M69" s="7">
-        <f>SUM(C69:L69)</f>
-        <v/>
+      <c r="M69" s="7" t="n">
+        <v>500</v>
       </c>
       <c r="N69" s="7">
         <f>SUM(M4:M69)</f>
@@ -18884,9 +18714,8 @@
       <c r="J70" s="7" t="inlineStr"/>
       <c r="K70" s="7" t="inlineStr"/>
       <c r="L70" s="7" t="inlineStr"/>
-      <c r="M70" s="7">
-        <f>SUM(C70:L70)</f>
-        <v/>
+      <c r="M70" s="7" t="n">
+        <v>1169</v>
       </c>
       <c r="N70" s="7">
         <f>SUM(M4:M70)</f>
@@ -18916,9 +18745,8 @@
       <c r="J71" s="7" t="inlineStr"/>
       <c r="K71" s="7" t="inlineStr"/>
       <c r="L71" s="7" t="inlineStr"/>
-      <c r="M71" s="7">
-        <f>SUM(C71:L71)</f>
-        <v/>
+      <c r="M71" s="7" t="n">
+        <v>2067.89</v>
       </c>
       <c r="N71" s="7">
         <f>SUM(M4:M71)</f>
@@ -18944,9 +18772,8 @@
       <c r="J72" s="7" t="inlineStr"/>
       <c r="K72" s="7" t="inlineStr"/>
       <c r="L72" s="7" t="inlineStr"/>
-      <c r="M72" s="7">
-        <f>SUM(C72:L72)</f>
-        <v/>
+      <c r="M72" s="7" t="n">
+        <v>62.04</v>
       </c>
       <c r="N72" s="7">
         <f>SUM(M4:M72)</f>
@@ -18976,9 +18803,8 @@
       <c r="J73" s="7" t="inlineStr"/>
       <c r="K73" s="7" t="inlineStr"/>
       <c r="L73" s="7" t="inlineStr"/>
-      <c r="M73" s="7">
-        <f>SUM(C73:L73)</f>
-        <v/>
+      <c r="M73" s="7" t="n">
+        <v>15.15</v>
       </c>
       <c r="N73" s="7">
         <f>SUM(M4:M73)</f>
@@ -19004,9 +18830,8 @@
       <c r="J74" s="7" t="inlineStr"/>
       <c r="K74" s="7" t="inlineStr"/>
       <c r="L74" s="7" t="inlineStr"/>
-      <c r="M74" s="7">
-        <f>SUM(C74:L74)</f>
-        <v/>
+      <c r="M74" s="7" t="n">
+        <v>89.81</v>
       </c>
       <c r="N74" s="7">
         <f>SUM(M4:M74)</f>
@@ -19036,10 +18861,7 @@
       <c r="J75" s="7" t="inlineStr"/>
       <c r="K75" s="7" t="inlineStr"/>
       <c r="L75" s="7" t="inlineStr"/>
-      <c r="M75" s="7">
-        <f>SUM(C75:L75)</f>
-        <v/>
-      </c>
+      <c r="M75" s="7" t="inlineStr"/>
       <c r="N75" s="7">
         <f>SUM(M4:M75)</f>
         <v/>
@@ -19064,9 +18886,8 @@
       <c r="J76" s="7" t="inlineStr"/>
       <c r="K76" s="7" t="inlineStr"/>
       <c r="L76" s="7" t="inlineStr"/>
-      <c r="M76" s="7">
-        <f>SUM(C76:L76)</f>
-        <v/>
+      <c r="M76" s="7" t="n">
+        <v>75.47</v>
       </c>
       <c r="N76" s="7">
         <f>SUM(M4:M76)</f>
@@ -19096,9 +18917,8 @@
       <c r="J77" s="7" t="inlineStr"/>
       <c r="K77" s="7" t="inlineStr"/>
       <c r="L77" s="7" t="inlineStr"/>
-      <c r="M77" s="7">
-        <f>SUM(C77:L77)</f>
-        <v/>
+      <c r="M77" s="7" t="n">
+        <v>1800</v>
       </c>
       <c r="N77" s="7">
         <f>SUM(M4:M77)</f>
@@ -19124,10 +18944,7 @@
       <c r="J78" s="7" t="inlineStr"/>
       <c r="K78" s="7" t="inlineStr"/>
       <c r="L78" s="7" t="inlineStr"/>
-      <c r="M78" s="7">
-        <f>SUM(C78:L78)</f>
-        <v/>
-      </c>
+      <c r="M78" s="7" t="inlineStr"/>
       <c r="N78" s="7">
         <f>SUM(M4:M78)</f>
         <v/>
@@ -19156,9 +18973,8 @@
       <c r="J79" s="7" t="inlineStr"/>
       <c r="K79" s="7" t="inlineStr"/>
       <c r="L79" s="7" t="inlineStr"/>
-      <c r="M79" s="7">
-        <f>SUM(C79:L79)</f>
-        <v/>
+      <c r="M79" s="7" t="n">
+        <v>120.88</v>
       </c>
       <c r="N79" s="7">
         <f>SUM(M4:M79)</f>
@@ -19184,10 +19000,7 @@
       <c r="J80" s="7" t="inlineStr"/>
       <c r="K80" s="7" t="inlineStr"/>
       <c r="L80" s="7" t="inlineStr"/>
-      <c r="M80" s="7">
-        <f>SUM(C80:L80)</f>
-        <v/>
-      </c>
+      <c r="M80" s="7" t="inlineStr"/>
       <c r="N80" s="7">
         <f>SUM(M4:M80)</f>
         <v/>
@@ -19212,10 +19025,7 @@
       <c r="J81" s="7" t="inlineStr"/>
       <c r="K81" s="7" t="inlineStr"/>
       <c r="L81" s="7" t="inlineStr"/>
-      <c r="M81" s="7">
-        <f>SUM(C81:L81)</f>
-        <v/>
-      </c>
+      <c r="M81" s="7" t="inlineStr"/>
       <c r="N81" s="7">
         <f>SUM(M4:M81)</f>
         <v/>
@@ -19244,9 +19054,8 @@
       <c r="J82" s="7" t="inlineStr"/>
       <c r="K82" s="7" t="inlineStr"/>
       <c r="L82" s="7" t="inlineStr"/>
-      <c r="M82" s="7">
-        <f>SUM(C82:L82)</f>
-        <v/>
+      <c r="M82" s="7" t="n">
+        <v>6.8</v>
       </c>
       <c r="N82" s="7">
         <f>SUM(M4:M82)</f>
@@ -19276,9 +19085,8 @@
       <c r="J83" s="7" t="inlineStr"/>
       <c r="K83" s="7" t="inlineStr"/>
       <c r="L83" s="7" t="inlineStr"/>
-      <c r="M83" s="7">
-        <f>SUM(C83:L83)</f>
-        <v/>
+      <c r="M83" s="7" t="n">
+        <v>23</v>
       </c>
       <c r="N83" s="7">
         <f>SUM(M4:M83)</f>
@@ -19308,10 +19116,7 @@
       <c r="J84" s="7" t="inlineStr"/>
       <c r="K84" s="7" t="inlineStr"/>
       <c r="L84" s="7" t="inlineStr"/>
-      <c r="M84" s="7">
-        <f>SUM(C84:L84)</f>
-        <v/>
-      </c>
+      <c r="M84" s="7" t="inlineStr"/>
       <c r="N84" s="7">
         <f>SUM(M4:M84)</f>
         <v/>
@@ -19340,10 +19145,7 @@
       <c r="J85" s="7" t="inlineStr"/>
       <c r="K85" s="7" t="inlineStr"/>
       <c r="L85" s="7" t="inlineStr"/>
-      <c r="M85" s="7">
-        <f>SUM(C85:L85)</f>
-        <v/>
-      </c>
+      <c r="M85" s="7" t="inlineStr"/>
       <c r="N85" s="7">
         <f>SUM(M4:M85)</f>
         <v/>
@@ -19372,10 +19174,7 @@
       <c r="J86" s="7" t="inlineStr"/>
       <c r="K86" s="7" t="inlineStr"/>
       <c r="L86" s="7" t="inlineStr"/>
-      <c r="M86" s="7">
-        <f>SUM(C86:L86)</f>
-        <v/>
-      </c>
+      <c r="M86" s="7" t="inlineStr"/>
       <c r="N86" s="7">
         <f>SUM(M4:M86)</f>
         <v/>
@@ -19404,9 +19203,8 @@
       <c r="J87" s="7" t="inlineStr"/>
       <c r="K87" s="7" t="inlineStr"/>
       <c r="L87" s="7" t="inlineStr"/>
-      <c r="M87" s="7">
-        <f>SUM(C87:L87)</f>
-        <v/>
+      <c r="M87" s="7" t="n">
+        <v>147.36</v>
       </c>
       <c r="N87" s="7">
         <f>SUM(M4:M87)</f>
@@ -19436,10 +19234,7 @@
       <c r="J88" s="7" t="inlineStr"/>
       <c r="K88" s="7" t="inlineStr"/>
       <c r="L88" s="7" t="inlineStr"/>
-      <c r="M88" s="7">
-        <f>SUM(C88:L88)</f>
-        <v/>
-      </c>
+      <c r="M88" s="7" t="inlineStr"/>
       <c r="N88" s="7">
         <f>SUM(M4:M88)</f>
         <v/>
@@ -19464,10 +19259,7 @@
       <c r="J89" s="7" t="inlineStr"/>
       <c r="K89" s="7" t="inlineStr"/>
       <c r="L89" s="7" t="inlineStr"/>
-      <c r="M89" s="7">
-        <f>SUM(C89:L89)</f>
-        <v/>
-      </c>
+      <c r="M89" s="7" t="inlineStr"/>
       <c r="N89" s="7">
         <f>SUM(M4:M89)</f>
         <v/>
@@ -19496,9 +19288,8 @@
       <c r="J90" s="7" t="inlineStr"/>
       <c r="K90" s="7" t="inlineStr"/>
       <c r="L90" s="7" t="inlineStr"/>
-      <c r="M90" s="7">
-        <f>SUM(C90:L90)</f>
-        <v/>
+      <c r="M90" s="7" t="n">
+        <v>2300</v>
       </c>
       <c r="N90" s="7">
         <f>SUM(M4:M90)</f>
@@ -19524,9 +19315,8 @@
       <c r="J91" s="7" t="inlineStr"/>
       <c r="K91" s="7" t="inlineStr"/>
       <c r="L91" s="7" t="inlineStr"/>
-      <c r="M91" s="7">
-        <f>SUM(C91:L91)</f>
-        <v/>
+      <c r="M91" s="7" t="n">
+        <v>172.19</v>
       </c>
       <c r="N91" s="7">
         <f>SUM(M4:M91)</f>
@@ -19552,10 +19342,7 @@
       <c r="J92" s="7" t="inlineStr"/>
       <c r="K92" s="7" t="inlineStr"/>
       <c r="L92" s="7" t="inlineStr"/>
-      <c r="M92" s="7">
-        <f>SUM(C92:L92)</f>
-        <v/>
-      </c>
+      <c r="M92" s="7" t="inlineStr"/>
       <c r="N92" s="7">
         <f>SUM(M4:M92)</f>
         <v/>
@@ -19584,9 +19371,8 @@
       <c r="J93" s="7" t="inlineStr"/>
       <c r="K93" s="7" t="inlineStr"/>
       <c r="L93" s="7" t="inlineStr"/>
-      <c r="M93" s="7">
-        <f>SUM(C93:L93)</f>
-        <v/>
+      <c r="M93" s="7" t="n">
+        <v>1937.5</v>
       </c>
       <c r="N93" s="7">
         <f>SUM(M4:M93)</f>
@@ -19612,10 +19398,7 @@
       <c r="J94" s="7" t="inlineStr"/>
       <c r="K94" s="7" t="inlineStr"/>
       <c r="L94" s="7" t="inlineStr"/>
-      <c r="M94" s="7">
-        <f>SUM(C94:L94)</f>
-        <v/>
-      </c>
+      <c r="M94" s="7" t="inlineStr"/>
       <c r="N94" s="7">
         <f>SUM(M4:M94)</f>
         <v/>
@@ -19644,10 +19427,7 @@
       <c r="J95" s="7" t="inlineStr"/>
       <c r="K95" s="7" t="inlineStr"/>
       <c r="L95" s="7" t="inlineStr"/>
-      <c r="M95" s="7">
-        <f>SUM(C95:L95)</f>
-        <v/>
-      </c>
+      <c r="M95" s="7" t="inlineStr"/>
       <c r="N95" s="7">
         <f>SUM(M4:M95)</f>
         <v/>
@@ -19676,10 +19456,7 @@
       <c r="J96" s="7" t="inlineStr"/>
       <c r="K96" s="7" t="inlineStr"/>
       <c r="L96" s="7" t="inlineStr"/>
-      <c r="M96" s="7">
-        <f>SUM(C96:L96)</f>
-        <v/>
-      </c>
+      <c r="M96" s="7" t="inlineStr"/>
       <c r="N96" s="7">
         <f>SUM(M4:M96)</f>
         <v/>
@@ -19708,10 +19485,7 @@
       <c r="J97" s="7" t="inlineStr"/>
       <c r="K97" s="7" t="inlineStr"/>
       <c r="L97" s="7" t="inlineStr"/>
-      <c r="M97" s="7">
-        <f>SUM(C97:L97)</f>
-        <v/>
-      </c>
+      <c r="M97" s="7" t="inlineStr"/>
       <c r="N97" s="7">
         <f>SUM(M4:M97)</f>
         <v/>
@@ -19740,10 +19514,7 @@
       <c r="J98" s="7" t="inlineStr"/>
       <c r="K98" s="7" t="inlineStr"/>
       <c r="L98" s="7" t="inlineStr"/>
-      <c r="M98" s="7">
-        <f>SUM(C98:L98)</f>
-        <v/>
-      </c>
+      <c r="M98" s="7" t="inlineStr"/>
       <c r="N98" s="7">
         <f>SUM(M4:M98)</f>
         <v/>
@@ -19768,10 +19539,7 @@
         <v>45</v>
       </c>
       <c r="L99" s="7" t="inlineStr"/>
-      <c r="M99" s="7">
-        <f>SUM(C99:L99)</f>
-        <v/>
-      </c>
+      <c r="M99" s="7" t="inlineStr"/>
       <c r="N99" s="7">
         <f>SUM(M4:M99)</f>
         <v/>
@@ -19796,10 +19564,7 @@
       <c r="J100" s="7" t="inlineStr"/>
       <c r="K100" s="7" t="inlineStr"/>
       <c r="L100" s="7" t="inlineStr"/>
-      <c r="M100" s="7">
-        <f>SUM(C100:L100)</f>
-        <v/>
-      </c>
+      <c r="M100" s="7" t="inlineStr"/>
       <c r="N100" s="7">
         <f>SUM(M4:M100)</f>
         <v/>
@@ -19828,9 +19593,8 @@
       <c r="J101" s="7" t="inlineStr"/>
       <c r="K101" s="7" t="inlineStr"/>
       <c r="L101" s="7" t="inlineStr"/>
-      <c r="M101" s="7">
-        <f>SUM(C101:L101)</f>
-        <v/>
+      <c r="M101" s="7" t="n">
+        <v>8.5</v>
       </c>
       <c r="N101" s="7">
         <f>SUM(M4:M101)</f>
@@ -19860,9 +19624,8 @@
       <c r="J102" s="7" t="inlineStr"/>
       <c r="K102" s="7" t="inlineStr"/>
       <c r="L102" s="7" t="inlineStr"/>
-      <c r="M102" s="7">
-        <f>SUM(C102:L102)</f>
-        <v/>
+      <c r="M102" s="7" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="N102" s="7">
         <f>SUM(M4:M102)</f>
@@ -19888,10 +19651,7 @@
       <c r="J103" s="7" t="inlineStr"/>
       <c r="K103" s="7" t="inlineStr"/>
       <c r="L103" s="7" t="inlineStr"/>
-      <c r="M103" s="7">
-        <f>SUM(C103:L103)</f>
-        <v/>
-      </c>
+      <c r="M103" s="7" t="inlineStr"/>
       <c r="N103" s="7">
         <f>SUM(M4:M103)</f>
         <v/>
@@ -19920,10 +19680,7 @@
       <c r="J104" s="7" t="inlineStr"/>
       <c r="K104" s="7" t="inlineStr"/>
       <c r="L104" s="7" t="inlineStr"/>
-      <c r="M104" s="7">
-        <f>SUM(C104:L104)</f>
-        <v/>
-      </c>
+      <c r="M104" s="7" t="inlineStr"/>
       <c r="N104" s="7">
         <f>SUM(M4:M104)</f>
         <v/>

--- a/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Mastercard Apr - Jun 2023.xlsx
+++ b/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Mastercard Apr - Jun 2023.xlsx
@@ -774,7 +774,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr"/>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>09/05/2023</t>
+        </is>
+      </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
           <t>PAYMENT RECEIVED, THANK YOU MasterCardPayment</t>
@@ -16879,7 +16883,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr"/>
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Allison Browning</t>
@@ -16933,7 +16941,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr"/>
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>02/04/2023</t>
+        </is>
+      </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Coles Express</t>
@@ -17047,7 +17059,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>06/04/2023</t>
+        </is>
+      </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Allison Browning</t>
@@ -17072,7 +17088,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr"/>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>06/04/2023</t>
+        </is>
+      </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
           <t>METRO PETROLEUM CARLTOCARLTONAUS</t>
@@ -17130,7 +17150,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr"/>
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>11/04/2023</t>
+        </is>
+      </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Woolworths</t>
@@ -17184,7 +17208,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr"/>
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>13/04/2023</t>
+        </is>
+      </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
           <t>WILSON PARKING MEL252MELBOURNEVIC</t>
@@ -17240,7 +17268,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr"/>
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>14/04/2023</t>
+        </is>
+      </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
           <t>INTEREST CHARGES</t>
@@ -17267,7 +17299,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr"/>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>14/04/2023</t>
+        </is>
+      </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
           <t>Xero</t>
@@ -17292,7 +17328,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr"/>
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>14/04/2023</t>
+        </is>
+      </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
           <t>Coles Express</t>
@@ -17406,7 +17446,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr"/>
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>19/04/2023</t>
+        </is>
+      </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
           <t>Belong</t>
@@ -17431,7 +17475,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr"/>
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>19/04/2023</t>
+        </is>
+      </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
           <t>7-Eleven</t>
@@ -17572,7 +17620,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr"/>
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>26/04/2023</t>
+        </is>
+      </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
           <t>MELB ONSTREET PARKINGMELBOURNE</t>
@@ -17628,7 +17680,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr"/>
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>27/04/2023</t>
+        </is>
+      </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
           <t>EG Group</t>
@@ -17682,7 +17738,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr"/>
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>28/04/2023</t>
+        </is>
+      </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
           <t>Dr Bilge</t>
@@ -17740,7 +17800,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="inlineStr"/>
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>29/04/2023</t>
+        </is>
+      </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
           <t>PETBARNCOBURG</t>
@@ -17827,7 +17891,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr"/>
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>03/05/2023</t>
+        </is>
+      </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
           <t>COLES 7739PRESTONAUS</t>
@@ -17852,7 +17920,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr"/>
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>03/05/2023</t>
+        </is>
+      </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
           <t>EG Group</t>
@@ -17995,7 +18067,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="inlineStr"/>
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>07/05/2023</t>
+        </is>
+      </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
           <t>Chemist Warehouse</t>
@@ -18200,7 +18276,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr"/>
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
           <t>7-Eleven</t>
@@ -18254,7 +18334,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="inlineStr"/>
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>16/05/2023</t>
+        </is>
+      </c>
       <c r="B54" s="6" t="inlineStr">
         <is>
           <t>EG Group</t>
@@ -18339,7 +18423,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="inlineStr"/>
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>19/05/2023</t>
+        </is>
+      </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
           <t>7-Eleven</t>
@@ -18364,7 +18452,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="inlineStr"/>
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>19/05/2023</t>
+        </is>
+      </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
           <t>Kmart</t>
@@ -18389,7 +18481,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="inlineStr"/>
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>19/05/2023</t>
+        </is>
+      </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
           <t>CHINESE VISAMELBOURNEVIC</t>
@@ -18445,7 +18541,11 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr"/>
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>20/05/2023</t>
+        </is>
+      </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
           <t>Belong</t>
@@ -18528,7 +18628,11 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="inlineStr"/>
+      <c r="A64" s="6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
           <t>McDonalds</t>
@@ -18553,7 +18657,11 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="inlineStr"/>
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
           <t>Chemist Warehouse</t>
@@ -18607,7 +18715,11 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="inlineStr"/>
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>27/05/2023</t>
+        </is>
+      </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
           <t>GREENCROSS VETSPRESTONVIC</t>
@@ -18634,7 +18746,11 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="inlineStr"/>
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>27/05/2023</t>
+        </is>
+      </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
           <t>AA PRESTON 3662PRESTONVIC</t>
@@ -18754,7 +18870,11 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="inlineStr"/>
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>01/06/2023</t>
+        </is>
+      </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
           <t>INTNL TRANSACTION FEE</t>
@@ -18812,7 +18932,11 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="inlineStr"/>
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>02/06/2023</t>
+        </is>
+      </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
           <t>BP EXP THE TULLA 1684MELBOURNE AIVIC</t>
@@ -18868,7 +18992,11 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="inlineStr"/>
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>04/06/2023</t>
+        </is>
+      </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
           <t>Chemist Warehouse</t>
@@ -18926,7 +19054,11 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="inlineStr"/>
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>06/06/2023</t>
+        </is>
+      </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
           <t>Woolworths</t>
@@ -18982,7 +19114,11 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="inlineStr"/>
+      <c r="A80" s="6" t="inlineStr">
+        <is>
+          <t>07/06/2023</t>
+        </is>
+      </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
           <t>IGA</t>
@@ -19007,7 +19143,11 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="inlineStr"/>
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>07/06/2023</t>
+        </is>
+      </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
           <t>KFC</t>
@@ -19241,7 +19381,11 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="6" t="inlineStr"/>
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>19/06/2023</t>
+        </is>
+      </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
           <t>7-Eleven</t>
@@ -19297,7 +19441,11 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="6" t="inlineStr"/>
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>22/06/2023</t>
+        </is>
+      </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
           <t>OFFICEWORKS 0342COBURGAUS</t>
@@ -19324,7 +19472,11 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="6" t="inlineStr"/>
+      <c r="A92" s="6" t="inlineStr">
+        <is>
+          <t>22/06/2023</t>
+        </is>
+      </c>
       <c r="B92" s="6" t="inlineStr">
         <is>
           <t>EG Group</t>
@@ -19380,7 +19532,11 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="inlineStr"/>
+      <c r="A94" s="6" t="inlineStr">
+        <is>
+          <t>23/06/2023</t>
+        </is>
+      </c>
       <c r="B94" s="6" t="inlineStr">
         <is>
           <t>EG Group</t>
@@ -19521,7 +19677,11 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="6" t="inlineStr"/>
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>27/06/2023</t>
+        </is>
+      </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
           <t>Healthy Pets</t>
@@ -19546,7 +19706,11 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="6" t="inlineStr"/>
+      <c r="A100" s="6" t="inlineStr">
+        <is>
+          <t>27/06/2023</t>
+        </is>
+      </c>
       <c r="B100" s="6" t="inlineStr">
         <is>
           <t>McDonalds</t>
@@ -19633,7 +19797,11 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="6" t="inlineStr"/>
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>29/06/2023</t>
+        </is>
+      </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
           <t>7-Eleven</t>
